--- a/tests/outputs/Issue4.xlsx
+++ b/tests/outputs/Issue4.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="OUT_ASI_HKG_JPN" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,11 +17,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt formatCode="[$-409]d\-mmm;@" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
-    <numFmt formatCode="dd\ mmm/\ hh:mm" numFmtId="166"/>
-    <numFmt formatCode="dd\ mmm" numFmtId="167"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="168"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmm/\ hh:mm"/>
+    <numFmt numFmtId="167" formatCode="dd\ mmm"/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -522,343 +522,411 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="5" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="5" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="3" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="6" fontId="5" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="6" fontId="5" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="15" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="15" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="2" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1159,262 +1227,262 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="33.85546875"/>
-    <col customWidth="1" max="2" min="2" width="14.7109375"/>
-    <col customWidth="1" max="3" min="3" width="18.7109375"/>
-    <col customWidth="1" max="4" min="4" width="18.7109375"/>
-    <col customWidth="1" max="5" min="5" width="18.7109375"/>
-    <col customWidth="1" max="6" min="6" width="18.7109375"/>
-    <col customWidth="1" max="7" min="7" width="18.7109375"/>
-    <col customWidth="1" max="8" min="8" width="18.7109375"/>
-    <col customWidth="1" max="9" min="9" width="18.7109375"/>
-    <col customWidth="1" max="10" min="10" width="18.7109375"/>
-    <col customWidth="1" max="11" min="11" width="18.7109375"/>
-    <col customWidth="1" max="12" min="12" width="18.7109375"/>
-    <col customWidth="1" max="13" min="13" width="18.7109375"/>
-    <col customWidth="1" max="14" min="14" width="18.7109375"/>
-    <col customWidth="1" max="15" min="15" width="18.7109375"/>
-    <col customWidth="1" max="16" min="16" width="18.7109375"/>
-    <col customWidth="1" max="17" min="17" width="18.7109375"/>
-    <col customWidth="1" max="18" min="18" width="18.7109375"/>
-    <col customWidth="1" max="19" min="19" width="18.7109375"/>
-    <col customWidth="1" max="20" min="20" width="18.7109375"/>
-    <col customWidth="1" max="21" min="21" width="18.7109375"/>
-    <col customWidth="1" max="22" min="22" width="18.7109375"/>
-    <col customWidth="1" max="23" min="23" width="17.42578125"/>
-    <col customWidth="1" max="24" min="24" width="18.7109375"/>
-    <col customWidth="1" max="25" min="25" width="18.7109375"/>
-    <col customWidth="1" max="26" min="26" width="18.7109375"/>
-    <col customWidth="1" max="27" min="27" width="18.7109375"/>
-    <col customWidth="1" max="28" min="28" width="18.7109375"/>
-    <col customWidth="1" max="29" min="29" width="18.7109375"/>
-    <col customWidth="1" max="30" min="30" width="8.28515625"/>
-    <col customWidth="1" max="31" min="31" width="11.42578125"/>
-    <col customWidth="1" max="32" min="32" width="12.28515625"/>
-    <col customWidth="1" max="33" min="33" width="4"/>
-    <col customWidth="1" max="34" min="34" width="9"/>
-    <col customWidth="1" max="35" min="35" width="14.42578125"/>
-    <col customWidth="1" max="36" min="36" width="5"/>
-    <col customWidth="1" max="37" min="37" width="3.85546875"/>
-    <col customWidth="1" max="38" min="38" width="9.140625"/>
-    <col customWidth="1" max="39" min="39" width="7.5703125"/>
-    <col customWidth="1" max="40" min="40" width="5"/>
-    <col customWidth="1" max="41" min="41" width="3.85546875"/>
-    <col customWidth="1" max="42" min="42" width="9.140625"/>
-    <col customWidth="1" max="43" min="43" width="7.5703125"/>
-    <col customWidth="1" max="44" min="44" width="5"/>
-    <col customWidth="1" max="45" min="45" width="3.85546875"/>
-    <col customWidth="1" max="46" min="46" width="9.140625"/>
-    <col customWidth="1" max="47" min="47" width="7.5703125"/>
-    <col customWidth="1" max="48" min="48" width="5"/>
-    <col customWidth="1" max="49" min="49" width="3.85546875"/>
-    <col customWidth="1" max="50" min="50" width="9.140625"/>
-    <col customWidth="1" max="51" min="51" width="7.5703125"/>
-    <col customWidth="1" max="52" min="52" width="9.140625"/>
-    <col customWidth="1" max="53" min="53" width="9.140625"/>
-    <col customWidth="1" max="54" min="54" width="9.140625"/>
-    <col customWidth="1" max="55" min="55" width="9.140625"/>
-    <col customWidth="1" max="56" min="56" width="9.140625"/>
-    <col customWidth="1" max="57" min="57" width="9.140625"/>
-    <col customWidth="1" max="58" min="58" width="9.140625"/>
-    <col customWidth="1" max="59" min="59" width="9.140625"/>
-    <col customWidth="1" max="60" min="60" width="9.140625"/>
-    <col customWidth="1" max="61" min="61" width="9.140625"/>
-    <col customWidth="1" max="62" min="62" width="9.140625"/>
-    <col customWidth="1" max="63" min="63" width="9.140625"/>
-    <col customWidth="1" max="64" min="64" width="9.140625"/>
-    <col customWidth="1" max="65" min="65" width="9.140625"/>
-    <col customWidth="1" max="66" min="66" width="9.140625"/>
-    <col customWidth="1" max="67" min="67" width="9.140625"/>
-    <col customWidth="1" max="68" min="68" width="9.140625"/>
-    <col customWidth="1" max="69" min="69" width="9.140625"/>
-    <col customWidth="1" max="70" min="70" width="9.140625"/>
-    <col customWidth="1" max="71" min="71" width="9.140625"/>
-    <col customWidth="1" max="72" min="72" width="9.140625"/>
-    <col customWidth="1" max="73" min="73" width="9.140625"/>
-    <col customWidth="1" max="74" min="74" width="9.140625"/>
-    <col customWidth="1" max="75" min="75" width="9.140625"/>
-    <col customWidth="1" max="76" min="76" width="9.140625"/>
-    <col customWidth="1" max="77" min="77" width="9.140625"/>
-    <col customWidth="1" max="78" min="78" width="9.140625"/>
-    <col customWidth="1" max="79" min="79" width="9.140625"/>
-    <col customWidth="1" max="80" min="80" width="9.140625"/>
-    <col customWidth="1" max="81" min="81" width="9.140625"/>
-    <col customWidth="1" max="82" min="82" width="9.140625"/>
-    <col customWidth="1" max="83" min="83" width="9.140625"/>
-    <col customWidth="1" max="84" min="84" width="9.140625"/>
-    <col customWidth="1" max="85" min="85" width="9.140625"/>
-    <col customWidth="1" max="86" min="86" width="9.140625"/>
-    <col customWidth="1" max="87" min="87" width="9.140625"/>
-    <col customWidth="1" max="88" min="88" width="9.140625"/>
-    <col customWidth="1" max="89" min="89" width="9.140625"/>
-    <col customWidth="1" max="90" min="90" width="9.140625"/>
-    <col customWidth="1" max="91" min="91" width="9.140625"/>
-    <col customWidth="1" max="92" min="92" width="9.140625"/>
-    <col customWidth="1" max="93" min="93" width="9.140625"/>
-    <col customWidth="1" max="94" min="94" width="9.140625"/>
-    <col customWidth="1" max="95" min="95" width="9.140625"/>
-    <col customWidth="1" max="96" min="96" width="9.140625"/>
-    <col customWidth="1" max="97" min="97" width="9.140625"/>
-    <col customWidth="1" max="98" min="98" width="9.140625"/>
-    <col customWidth="1" max="99" min="99" width="9.140625"/>
-    <col customWidth="1" max="100" min="100" width="9.140625"/>
-    <col customWidth="1" max="101" min="101" width="9.140625"/>
-    <col customWidth="1" max="102" min="102" width="9.140625"/>
-    <col customWidth="1" max="103" min="103" width="9.140625"/>
-    <col customWidth="1" max="104" min="104" width="9.140625"/>
-    <col customWidth="1" max="105" min="105" width="9.140625"/>
-    <col customWidth="1" max="106" min="106" width="9.140625"/>
-    <col customWidth="1" max="107" min="107" width="9.140625"/>
-    <col customWidth="1" max="108" min="108" width="9.140625"/>
-    <col customWidth="1" max="109" min="109" width="9.140625"/>
-    <col customWidth="1" max="110" min="110" width="9.140625"/>
-    <col customWidth="1" max="111" min="111" width="9.140625"/>
-    <col customWidth="1" max="112" min="112" width="9.140625"/>
-    <col customWidth="1" max="113" min="113" width="9.140625"/>
-    <col customWidth="1" max="114" min="114" width="9.140625"/>
-    <col customWidth="1" max="115" min="115" width="9.140625"/>
-    <col customWidth="1" max="116" min="116" width="9.140625"/>
-    <col customWidth="1" max="117" min="117" width="9.140625"/>
-    <col customWidth="1" max="118" min="118" width="9.140625"/>
-    <col customWidth="1" max="119" min="119" width="9.140625"/>
-    <col customWidth="1" max="120" min="120" width="9.140625"/>
-    <col customWidth="1" max="121" min="121" width="9.140625"/>
-    <col customWidth="1" max="122" min="122" width="9.140625"/>
-    <col customWidth="1" max="123" min="123" width="9.140625"/>
-    <col customWidth="1" max="124" min="124" width="9.140625"/>
-    <col customWidth="1" max="125" min="125" width="9.140625"/>
-    <col customWidth="1" max="126" min="126" width="9.140625"/>
-    <col customWidth="1" max="127" min="127" width="9.140625"/>
-    <col customWidth="1" max="128" min="128" width="9.140625"/>
-    <col customWidth="1" max="129" min="129" width="9.140625"/>
-    <col customWidth="1" max="130" min="130" width="9.140625"/>
-    <col customWidth="1" max="131" min="131" width="9.140625"/>
-    <col customWidth="1" max="132" min="132" width="9.140625"/>
-    <col customWidth="1" max="133" min="133" width="9.140625"/>
-    <col customWidth="1" max="134" min="134" width="9.140625"/>
-    <col customWidth="1" max="135" min="135" width="9.140625"/>
-    <col customWidth="1" max="136" min="136" width="9.140625"/>
-    <col customWidth="1" max="137" min="137" width="9.140625"/>
-    <col customWidth="1" max="138" min="138" width="9.140625"/>
-    <col customWidth="1" max="139" min="139" width="9.140625"/>
-    <col customWidth="1" max="140" min="140" width="9.140625"/>
-    <col customWidth="1" max="141" min="141" width="9.140625"/>
-    <col customWidth="1" max="142" min="142" width="9.140625"/>
-    <col customWidth="1" max="143" min="143" width="9.140625"/>
-    <col customWidth="1" max="144" min="144" width="9.140625"/>
-    <col customWidth="1" max="145" min="145" width="9.140625"/>
-    <col customWidth="1" max="146" min="146" width="9.140625"/>
-    <col customWidth="1" max="147" min="147" width="9.140625"/>
-    <col customWidth="1" max="148" min="148" width="9.140625"/>
-    <col customWidth="1" max="149" min="149" width="9.140625"/>
-    <col customWidth="1" max="150" min="150" width="9.140625"/>
-    <col customWidth="1" max="151" min="151" width="9.140625"/>
-    <col customWidth="1" max="152" min="152" width="9.140625"/>
-    <col customWidth="1" max="153" min="153" width="9.140625"/>
-    <col customWidth="1" max="154" min="154" width="9.140625"/>
-    <col customWidth="1" max="155" min="155" width="9.140625"/>
-    <col customWidth="1" max="156" min="156" width="9.140625"/>
-    <col customWidth="1" max="157" min="157" width="9.140625"/>
-    <col customWidth="1" max="158" min="158" width="9.140625"/>
-    <col customWidth="1" max="159" min="159" width="9.140625"/>
-    <col customWidth="1" max="160" min="160" width="9.140625"/>
-    <col customWidth="1" max="161" min="161" width="9.140625"/>
-    <col customWidth="1" max="162" min="162" width="9.140625"/>
-    <col customWidth="1" max="163" min="163" width="9.140625"/>
-    <col customWidth="1" max="164" min="164" width="9.140625"/>
-    <col customWidth="1" max="165" min="165" width="9.140625"/>
-    <col customWidth="1" max="166" min="166" width="9.140625"/>
-    <col customWidth="1" max="167" min="167" width="9.140625"/>
-    <col customWidth="1" max="168" min="168" width="9.140625"/>
-    <col customWidth="1" max="169" min="169" width="9.140625"/>
-    <col customWidth="1" max="170" min="170" width="9.140625"/>
-    <col customWidth="1" max="171" min="171" width="9.140625"/>
-    <col customWidth="1" max="172" min="172" width="9.140625"/>
-    <col customWidth="1" max="173" min="173" width="9.140625"/>
-    <col customWidth="1" max="174" min="174" width="9.140625"/>
-    <col customWidth="1" max="175" min="175" width="9.140625"/>
-    <col customWidth="1" max="176" min="176" width="9.140625"/>
-    <col customWidth="1" max="177" min="177" width="9.140625"/>
-    <col customWidth="1" max="178" min="178" width="9.140625"/>
-    <col customWidth="1" max="179" min="179" width="9.140625"/>
-    <col customWidth="1" max="180" min="180" width="9.140625"/>
-    <col customWidth="1" max="181" min="181" width="9.140625"/>
-    <col customWidth="1" max="182" min="182" width="9.140625"/>
-    <col customWidth="1" max="183" min="183" width="9.140625"/>
-    <col customWidth="1" max="184" min="184" width="9.140625"/>
-    <col customWidth="1" max="185" min="185" width="9.140625"/>
-    <col customWidth="1" max="186" min="186" width="9.140625"/>
-    <col customWidth="1" max="187" min="187" width="9.140625"/>
-    <col customWidth="1" max="188" min="188" width="9.140625"/>
-    <col customWidth="1" max="189" min="189" width="9.140625"/>
-    <col customWidth="1" max="190" min="190" width="9.140625"/>
-    <col customWidth="1" max="191" min="191" width="9.140625"/>
-    <col customWidth="1" max="192" min="192" width="9.140625"/>
-    <col customWidth="1" max="193" min="193" width="9.140625"/>
-    <col customWidth="1" max="194" min="194" width="9.140625"/>
-    <col customWidth="1" max="195" min="195" width="9.140625"/>
-    <col customWidth="1" max="196" min="196" width="9.140625"/>
-    <col customWidth="1" max="197" min="197" width="9.140625"/>
-    <col customWidth="1" max="198" min="198" width="9.140625"/>
-    <col customWidth="1" max="199" min="199" width="9.140625"/>
-    <col customWidth="1" max="200" min="200" width="9.140625"/>
-    <col customWidth="1" max="201" min="201" width="9.140625"/>
-    <col customWidth="1" max="202" min="202" width="9.140625"/>
-    <col customWidth="1" max="203" min="203" width="9.140625"/>
-    <col customWidth="1" max="204" min="204" width="9.140625"/>
-    <col customWidth="1" max="205" min="205" width="9.140625"/>
-    <col customWidth="1" max="206" min="206" width="9.140625"/>
-    <col customWidth="1" max="207" min="207" width="9.140625"/>
-    <col customWidth="1" max="208" min="208" width="9.140625"/>
-    <col customWidth="1" max="209" min="209" width="9.140625"/>
-    <col customWidth="1" max="210" min="210" width="9.140625"/>
-    <col customWidth="1" max="211" min="211" width="9.140625"/>
-    <col customWidth="1" max="212" min="212" width="9.140625"/>
-    <col customWidth="1" max="213" min="213" width="9.140625"/>
-    <col customWidth="1" max="214" min="214" width="9.140625"/>
-    <col customWidth="1" max="215" min="215" width="9.140625"/>
-    <col customWidth="1" max="216" min="216" width="9.140625"/>
-    <col customWidth="1" max="217" min="217" width="9.140625"/>
-    <col customWidth="1" max="218" min="218" width="9.140625"/>
-    <col customWidth="1" max="219" min="219" width="9.140625"/>
-    <col customWidth="1" max="220" min="220" width="9.140625"/>
-    <col customWidth="1" max="221" min="221" width="9.140625"/>
-    <col customWidth="1" max="222" min="222" width="9.140625"/>
-    <col customWidth="1" max="223" min="223" width="9.140625"/>
-    <col customWidth="1" max="224" min="224" width="9.140625"/>
-    <col customWidth="1" max="225" min="225" width="9.140625"/>
-    <col customWidth="1" max="226" min="226" width="9.140625"/>
-    <col customWidth="1" max="227" min="227" width="9.140625"/>
-    <col customWidth="1" max="228" min="228" width="9.140625"/>
-    <col customWidth="1" max="229" min="229" width="9.140625"/>
-    <col customWidth="1" max="230" min="230" width="9.140625"/>
-    <col customWidth="1" max="231" min="231" width="9.140625"/>
-    <col customWidth="1" max="232" min="232" width="9.140625"/>
-    <col customWidth="1" max="233" min="233" width="9.140625"/>
-    <col customWidth="1" max="234" min="234" width="9.140625"/>
-    <col customWidth="1" max="235" min="235" width="9.140625"/>
-    <col customWidth="1" max="236" min="236" width="9.140625"/>
-    <col customWidth="1" max="237" min="237" width="9.140625"/>
-    <col customWidth="1" max="238" min="238" width="9.140625"/>
-    <col customWidth="1" max="239" min="239" width="9.140625"/>
-    <col customWidth="1" max="240" min="240" width="9.140625"/>
-    <col customWidth="1" max="241" min="241" width="9.140625"/>
-    <col customWidth="1" max="242" min="242" width="9.140625"/>
-    <col customWidth="1" max="243" min="243" width="9.140625"/>
-    <col customWidth="1" max="244" min="244" width="9.140625"/>
-    <col customWidth="1" max="245" min="245" width="9.140625"/>
-    <col customWidth="1" max="246" min="246" width="9.140625"/>
-    <col customWidth="1" max="247" min="247" width="9.140625"/>
-    <col customWidth="1" max="248" min="248" width="9.140625"/>
-    <col customWidth="1" max="249" min="249" width="9.140625"/>
-    <col customWidth="1" max="250" min="250" width="9.140625"/>
-    <col customWidth="1" max="251" min="251" width="9.140625"/>
-    <col customWidth="1" max="252" min="252" width="9.140625"/>
-    <col customWidth="1" max="253" min="253" width="9.140625"/>
-    <col customWidth="1" max="254" min="254" width="9.140625"/>
-    <col customWidth="1" max="255" min="255" width="9.140625"/>
-    <col customWidth="1" max="256" min="256" width="10.85546875"/>
+    <col width="33.85546875" customWidth="1" min="1" max="1"/>
+    <col width="14.7109375" customWidth="1" min="2" max="2"/>
+    <col width="18.7109375" customWidth="1" min="3" max="3"/>
+    <col width="18.7109375" customWidth="1" min="4" max="4"/>
+    <col width="18.7109375" customWidth="1" min="5" max="5"/>
+    <col width="18.7109375" customWidth="1" min="6" max="6"/>
+    <col width="18.7109375" customWidth="1" min="7" max="7"/>
+    <col width="18.7109375" customWidth="1" min="8" max="8"/>
+    <col width="18.7109375" customWidth="1" min="9" max="9"/>
+    <col width="18.7109375" customWidth="1" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" min="11" max="11"/>
+    <col width="18.7109375" customWidth="1" min="12" max="12"/>
+    <col width="18.7109375" customWidth="1" min="13" max="13"/>
+    <col width="18.7109375" customWidth="1" min="14" max="14"/>
+    <col width="18.7109375" customWidth="1" min="15" max="15"/>
+    <col width="18.7109375" customWidth="1" min="16" max="16"/>
+    <col width="18.7109375" customWidth="1" min="17" max="17"/>
+    <col width="18.7109375" customWidth="1" min="18" max="18"/>
+    <col width="18.7109375" customWidth="1" min="19" max="19"/>
+    <col width="18.7109375" customWidth="1" min="20" max="20"/>
+    <col width="18.7109375" customWidth="1" min="21" max="21"/>
+    <col width="18.7109375" customWidth="1" min="22" max="22"/>
+    <col width="17.42578125" customWidth="1" min="23" max="23"/>
+    <col width="18.7109375" customWidth="1" min="24" max="24"/>
+    <col width="18.7109375" customWidth="1" min="25" max="25"/>
+    <col width="18.7109375" customWidth="1" min="26" max="26"/>
+    <col width="18.7109375" customWidth="1" min="27" max="27"/>
+    <col width="18.7109375" customWidth="1" min="28" max="28"/>
+    <col width="18.7109375" customWidth="1" min="29" max="29"/>
+    <col width="8.28515625" customWidth="1" min="30" max="30"/>
+    <col width="11.42578125" customWidth="1" min="31" max="31"/>
+    <col width="12.28515625" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="9" customWidth="1" min="34" max="34"/>
+    <col width="14.42578125" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="36" max="36"/>
+    <col width="3.85546875" customWidth="1" min="37" max="37"/>
+    <col width="9.140625" customWidth="1" min="38" max="38"/>
+    <col width="7.5703125" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="3.85546875" customWidth="1" min="41" max="41"/>
+    <col width="9.140625" customWidth="1" min="42" max="42"/>
+    <col width="7.5703125" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="3.85546875" customWidth="1" min="45" max="45"/>
+    <col width="9.140625" customWidth="1" min="46" max="46"/>
+    <col width="7.5703125" customWidth="1" min="47" max="47"/>
+    <col width="5" customWidth="1" min="48" max="48"/>
+    <col width="3.85546875" customWidth="1" min="49" max="49"/>
+    <col width="9.140625" customWidth="1" min="50" max="50"/>
+    <col width="7.5703125" customWidth="1" min="51" max="51"/>
+    <col width="9.140625" customWidth="1" min="52" max="52"/>
+    <col width="9.140625" customWidth="1" min="53" max="53"/>
+    <col width="9.140625" customWidth="1" min="54" max="54"/>
+    <col width="9.140625" customWidth="1" min="55" max="55"/>
+    <col width="9.140625" customWidth="1" min="56" max="56"/>
+    <col width="9.140625" customWidth="1" min="57" max="57"/>
+    <col width="9.140625" customWidth="1" min="58" max="58"/>
+    <col width="9.140625" customWidth="1" min="59" max="59"/>
+    <col width="9.140625" customWidth="1" min="60" max="60"/>
+    <col width="9.140625" customWidth="1" min="61" max="61"/>
+    <col width="9.140625" customWidth="1" min="62" max="62"/>
+    <col width="9.140625" customWidth="1" min="63" max="63"/>
+    <col width="9.140625" customWidth="1" min="64" max="64"/>
+    <col width="9.140625" customWidth="1" min="65" max="65"/>
+    <col width="9.140625" customWidth="1" min="66" max="66"/>
+    <col width="9.140625" customWidth="1" min="67" max="67"/>
+    <col width="9.140625" customWidth="1" min="68" max="68"/>
+    <col width="9.140625" customWidth="1" min="69" max="69"/>
+    <col width="9.140625" customWidth="1" min="70" max="70"/>
+    <col width="9.140625" customWidth="1" min="71" max="71"/>
+    <col width="9.140625" customWidth="1" min="72" max="72"/>
+    <col width="9.140625" customWidth="1" min="73" max="73"/>
+    <col width="9.140625" customWidth="1" min="74" max="74"/>
+    <col width="9.140625" customWidth="1" min="75" max="75"/>
+    <col width="9.140625" customWidth="1" min="76" max="76"/>
+    <col width="9.140625" customWidth="1" min="77" max="77"/>
+    <col width="9.140625" customWidth="1" min="78" max="78"/>
+    <col width="9.140625" customWidth="1" min="79" max="79"/>
+    <col width="9.140625" customWidth="1" min="80" max="80"/>
+    <col width="9.140625" customWidth="1" min="81" max="81"/>
+    <col width="9.140625" customWidth="1" min="82" max="82"/>
+    <col width="9.140625" customWidth="1" min="83" max="83"/>
+    <col width="9.140625" customWidth="1" min="84" max="84"/>
+    <col width="9.140625" customWidth="1" min="85" max="85"/>
+    <col width="9.140625" customWidth="1" min="86" max="86"/>
+    <col width="9.140625" customWidth="1" min="87" max="87"/>
+    <col width="9.140625" customWidth="1" min="88" max="88"/>
+    <col width="9.140625" customWidth="1" min="89" max="89"/>
+    <col width="9.140625" customWidth="1" min="90" max="90"/>
+    <col width="9.140625" customWidth="1" min="91" max="91"/>
+    <col width="9.140625" customWidth="1" min="92" max="92"/>
+    <col width="9.140625" customWidth="1" min="93" max="93"/>
+    <col width="9.140625" customWidth="1" min="94" max="94"/>
+    <col width="9.140625" customWidth="1" min="95" max="95"/>
+    <col width="9.140625" customWidth="1" min="96" max="96"/>
+    <col width="9.140625" customWidth="1" min="97" max="97"/>
+    <col width="9.140625" customWidth="1" min="98" max="98"/>
+    <col width="9.140625" customWidth="1" min="99" max="99"/>
+    <col width="9.140625" customWidth="1" min="100" max="100"/>
+    <col width="9.140625" customWidth="1" min="101" max="101"/>
+    <col width="9.140625" customWidth="1" min="102" max="102"/>
+    <col width="9.140625" customWidth="1" min="103" max="103"/>
+    <col width="9.140625" customWidth="1" min="104" max="104"/>
+    <col width="9.140625" customWidth="1" min="105" max="105"/>
+    <col width="9.140625" customWidth="1" min="106" max="106"/>
+    <col width="9.140625" customWidth="1" min="107" max="107"/>
+    <col width="9.140625" customWidth="1" min="108" max="108"/>
+    <col width="9.140625" customWidth="1" min="109" max="109"/>
+    <col width="9.140625" customWidth="1" min="110" max="110"/>
+    <col width="9.140625" customWidth="1" min="111" max="111"/>
+    <col width="9.140625" customWidth="1" min="112" max="112"/>
+    <col width="9.140625" customWidth="1" min="113" max="113"/>
+    <col width="9.140625" customWidth="1" min="114" max="114"/>
+    <col width="9.140625" customWidth="1" min="115" max="115"/>
+    <col width="9.140625" customWidth="1" min="116" max="116"/>
+    <col width="9.140625" customWidth="1" min="117" max="117"/>
+    <col width="9.140625" customWidth="1" min="118" max="118"/>
+    <col width="9.140625" customWidth="1" min="119" max="119"/>
+    <col width="9.140625" customWidth="1" min="120" max="120"/>
+    <col width="9.140625" customWidth="1" min="121" max="121"/>
+    <col width="9.140625" customWidth="1" min="122" max="122"/>
+    <col width="9.140625" customWidth="1" min="123" max="123"/>
+    <col width="9.140625" customWidth="1" min="124" max="124"/>
+    <col width="9.140625" customWidth="1" min="125" max="125"/>
+    <col width="9.140625" customWidth="1" min="126" max="126"/>
+    <col width="9.140625" customWidth="1" min="127" max="127"/>
+    <col width="9.140625" customWidth="1" min="128" max="128"/>
+    <col width="9.140625" customWidth="1" min="129" max="129"/>
+    <col width="9.140625" customWidth="1" min="130" max="130"/>
+    <col width="9.140625" customWidth="1" min="131" max="131"/>
+    <col width="9.140625" customWidth="1" min="132" max="132"/>
+    <col width="9.140625" customWidth="1" min="133" max="133"/>
+    <col width="9.140625" customWidth="1" min="134" max="134"/>
+    <col width="9.140625" customWidth="1" min="135" max="135"/>
+    <col width="9.140625" customWidth="1" min="136" max="136"/>
+    <col width="9.140625" customWidth="1" min="137" max="137"/>
+    <col width="9.140625" customWidth="1" min="138" max="138"/>
+    <col width="9.140625" customWidth="1" min="139" max="139"/>
+    <col width="9.140625" customWidth="1" min="140" max="140"/>
+    <col width="9.140625" customWidth="1" min="141" max="141"/>
+    <col width="9.140625" customWidth="1" min="142" max="142"/>
+    <col width="9.140625" customWidth="1" min="143" max="143"/>
+    <col width="9.140625" customWidth="1" min="144" max="144"/>
+    <col width="9.140625" customWidth="1" min="145" max="145"/>
+    <col width="9.140625" customWidth="1" min="146" max="146"/>
+    <col width="9.140625" customWidth="1" min="147" max="147"/>
+    <col width="9.140625" customWidth="1" min="148" max="148"/>
+    <col width="9.140625" customWidth="1" min="149" max="149"/>
+    <col width="9.140625" customWidth="1" min="150" max="150"/>
+    <col width="9.140625" customWidth="1" min="151" max="151"/>
+    <col width="9.140625" customWidth="1" min="152" max="152"/>
+    <col width="9.140625" customWidth="1" min="153" max="153"/>
+    <col width="9.140625" customWidth="1" min="154" max="154"/>
+    <col width="9.140625" customWidth="1" min="155" max="155"/>
+    <col width="9.140625" customWidth="1" min="156" max="156"/>
+    <col width="9.140625" customWidth="1" min="157" max="157"/>
+    <col width="9.140625" customWidth="1" min="158" max="158"/>
+    <col width="9.140625" customWidth="1" min="159" max="159"/>
+    <col width="9.140625" customWidth="1" min="160" max="160"/>
+    <col width="9.140625" customWidth="1" min="161" max="161"/>
+    <col width="9.140625" customWidth="1" min="162" max="162"/>
+    <col width="9.140625" customWidth="1" min="163" max="163"/>
+    <col width="9.140625" customWidth="1" min="164" max="164"/>
+    <col width="9.140625" customWidth="1" min="165" max="165"/>
+    <col width="9.140625" customWidth="1" min="166" max="166"/>
+    <col width="9.140625" customWidth="1" min="167" max="167"/>
+    <col width="9.140625" customWidth="1" min="168" max="168"/>
+    <col width="9.140625" customWidth="1" min="169" max="169"/>
+    <col width="9.140625" customWidth="1" min="170" max="170"/>
+    <col width="9.140625" customWidth="1" min="171" max="171"/>
+    <col width="9.140625" customWidth="1" min="172" max="172"/>
+    <col width="9.140625" customWidth="1" min="173" max="173"/>
+    <col width="9.140625" customWidth="1" min="174" max="174"/>
+    <col width="9.140625" customWidth="1" min="175" max="175"/>
+    <col width="9.140625" customWidth="1" min="176" max="176"/>
+    <col width="9.140625" customWidth="1" min="177" max="177"/>
+    <col width="9.140625" customWidth="1" min="178" max="178"/>
+    <col width="9.140625" customWidth="1" min="179" max="179"/>
+    <col width="9.140625" customWidth="1" min="180" max="180"/>
+    <col width="9.140625" customWidth="1" min="181" max="181"/>
+    <col width="9.140625" customWidth="1" min="182" max="182"/>
+    <col width="9.140625" customWidth="1" min="183" max="183"/>
+    <col width="9.140625" customWidth="1" min="184" max="184"/>
+    <col width="9.140625" customWidth="1" min="185" max="185"/>
+    <col width="9.140625" customWidth="1" min="186" max="186"/>
+    <col width="9.140625" customWidth="1" min="187" max="187"/>
+    <col width="9.140625" customWidth="1" min="188" max="188"/>
+    <col width="9.140625" customWidth="1" min="189" max="189"/>
+    <col width="9.140625" customWidth="1" min="190" max="190"/>
+    <col width="9.140625" customWidth="1" min="191" max="191"/>
+    <col width="9.140625" customWidth="1" min="192" max="192"/>
+    <col width="9.140625" customWidth="1" min="193" max="193"/>
+    <col width="9.140625" customWidth="1" min="194" max="194"/>
+    <col width="9.140625" customWidth="1" min="195" max="195"/>
+    <col width="9.140625" customWidth="1" min="196" max="196"/>
+    <col width="9.140625" customWidth="1" min="197" max="197"/>
+    <col width="9.140625" customWidth="1" min="198" max="198"/>
+    <col width="9.140625" customWidth="1" min="199" max="199"/>
+    <col width="9.140625" customWidth="1" min="200" max="200"/>
+    <col width="9.140625" customWidth="1" min="201" max="201"/>
+    <col width="9.140625" customWidth="1" min="202" max="202"/>
+    <col width="9.140625" customWidth="1" min="203" max="203"/>
+    <col width="9.140625" customWidth="1" min="204" max="204"/>
+    <col width="9.140625" customWidth="1" min="205" max="205"/>
+    <col width="9.140625" customWidth="1" min="206" max="206"/>
+    <col width="9.140625" customWidth="1" min="207" max="207"/>
+    <col width="9.140625" customWidth="1" min="208" max="208"/>
+    <col width="9.140625" customWidth="1" min="209" max="209"/>
+    <col width="9.140625" customWidth="1" min="210" max="210"/>
+    <col width="9.140625" customWidth="1" min="211" max="211"/>
+    <col width="9.140625" customWidth="1" min="212" max="212"/>
+    <col width="9.140625" customWidth="1" min="213" max="213"/>
+    <col width="9.140625" customWidth="1" min="214" max="214"/>
+    <col width="9.140625" customWidth="1" min="215" max="215"/>
+    <col width="9.140625" customWidth="1" min="216" max="216"/>
+    <col width="9.140625" customWidth="1" min="217" max="217"/>
+    <col width="9.140625" customWidth="1" min="218" max="218"/>
+    <col width="9.140625" customWidth="1" min="219" max="219"/>
+    <col width="9.140625" customWidth="1" min="220" max="220"/>
+    <col width="9.140625" customWidth="1" min="221" max="221"/>
+    <col width="9.140625" customWidth="1" min="222" max="222"/>
+    <col width="9.140625" customWidth="1" min="223" max="223"/>
+    <col width="9.140625" customWidth="1" min="224" max="224"/>
+    <col width="9.140625" customWidth="1" min="225" max="225"/>
+    <col width="9.140625" customWidth="1" min="226" max="226"/>
+    <col width="9.140625" customWidth="1" min="227" max="227"/>
+    <col width="9.140625" customWidth="1" min="228" max="228"/>
+    <col width="9.140625" customWidth="1" min="229" max="229"/>
+    <col width="9.140625" customWidth="1" min="230" max="230"/>
+    <col width="9.140625" customWidth="1" min="231" max="231"/>
+    <col width="9.140625" customWidth="1" min="232" max="232"/>
+    <col width="9.140625" customWidth="1" min="233" max="233"/>
+    <col width="9.140625" customWidth="1" min="234" max="234"/>
+    <col width="9.140625" customWidth="1" min="235" max="235"/>
+    <col width="9.140625" customWidth="1" min="236" max="236"/>
+    <col width="9.140625" customWidth="1" min="237" max="237"/>
+    <col width="9.140625" customWidth="1" min="238" max="238"/>
+    <col width="9.140625" customWidth="1" min="239" max="239"/>
+    <col width="9.140625" customWidth="1" min="240" max="240"/>
+    <col width="9.140625" customWidth="1" min="241" max="241"/>
+    <col width="9.140625" customWidth="1" min="242" max="242"/>
+    <col width="9.140625" customWidth="1" min="243" max="243"/>
+    <col width="9.140625" customWidth="1" min="244" max="244"/>
+    <col width="9.140625" customWidth="1" min="245" max="245"/>
+    <col width="9.140625" customWidth="1" min="246" max="246"/>
+    <col width="9.140625" customWidth="1" min="247" max="247"/>
+    <col width="9.140625" customWidth="1" min="248" max="248"/>
+    <col width="9.140625" customWidth="1" min="249" max="249"/>
+    <col width="9.140625" customWidth="1" min="250" max="250"/>
+    <col width="9.140625" customWidth="1" min="251" max="251"/>
+    <col width="9.140625" customWidth="1" min="252" max="252"/>
+    <col width="9.140625" customWidth="1" min="253" max="253"/>
+    <col width="9.140625" customWidth="1" min="254" max="254"/>
+    <col width="9.140625" customWidth="1" min="255" max="255"/>
+    <col width="10.85546875" customWidth="1" min="256" max="256"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1582,7 +1650,7 @@
       <c r="AZ3" s="1" t="inlineStr"/>
       <c r="BA3" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr"/>
@@ -1637,7 +1705,7 @@
       <c r="AZ4" s="1" t="inlineStr"/>
       <c r="BA4" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" s="1" t="inlineStr"/>
@@ -1692,7 +1760,7 @@
       <c r="AZ5" s="1" t="inlineStr"/>
       <c r="BA5" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" s="1" t="inlineStr"/>
@@ -1747,7 +1815,7 @@
       <c r="AZ6" s="1" t="inlineStr"/>
       <c r="BA6" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="7">
+    <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Hong Kong / South China - Outbound to Japan Main Ports</t>
@@ -1806,7 +1874,7 @@
       <c r="AZ7" s="1" t="inlineStr"/>
       <c r="BA7" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="8">
+    <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Attention: Manual VGM cutoff is 8 working hours earlier than eVGM cutoff</t>
@@ -1865,7 +1933,7 @@
       <c r="AZ8" s="1" t="inlineStr"/>
       <c r="BA8" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="9">
+    <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
@@ -1920,7 +1988,7 @@
       <c r="AZ9" s="1" t="inlineStr"/>
       <c r="BA9" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="10">
+    <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>KTX1</t>
@@ -1979,7 +2047,7 @@
       <c r="AZ10" s="1" t="inlineStr"/>
       <c r="BA10" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="11">
+    <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="8" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -2066,7 +2134,7 @@
       <c r="AZ11" s="1" t="inlineStr"/>
       <c r="BA11" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="38.1" r="12">
+    <row r="12" ht="38.1" customHeight="1">
       <c r="A12" s="14" t="inlineStr"/>
       <c r="B12" s="14" t="inlineStr"/>
       <c r="C12" s="15" t="inlineStr">
@@ -2225,7 +2293,7 @@
       <c r="AZ12" s="1" t="inlineStr"/>
       <c r="BA12" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="19" t="inlineStr"/>
       <c r="B13" s="19" t="inlineStr"/>
       <c r="C13" s="19" t="inlineStr">
@@ -2364,7 +2432,7 @@
       <c r="AZ13" s="1" t="inlineStr"/>
       <c r="BA13" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="14">
+    <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="22" t="inlineStr">
         <is>
           <t>GSL KETA</t>
@@ -2485,7 +2553,7 @@
       <c r="AZ14" s="1" t="inlineStr"/>
       <c r="BA14" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="15">
+    <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="22" t="inlineStr">
         <is>
           <t>HARIS</t>
@@ -2606,7 +2674,7 @@
       <c r="AZ15" s="1" t="inlineStr"/>
       <c r="BA15" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="16">
+    <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="22" t="inlineStr">
         <is>
           <t>ST GREEN</t>
@@ -2727,7 +2795,7 @@
       <c r="AZ16" s="1" t="inlineStr"/>
       <c r="BA16" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="17">
+    <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="22" t="inlineStr">
         <is>
           <t>SPECTRUM N</t>
@@ -2848,7 +2916,7 @@
       <c r="AZ17" s="1" t="inlineStr"/>
       <c r="BA17" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="18">
+    <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="22" t="inlineStr">
         <is>
           <t>GSL KETA</t>
@@ -2969,7 +3037,7 @@
       <c r="AZ18" s="1" t="inlineStr"/>
       <c r="BA18" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="19">
+    <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="22" t="inlineStr">
         <is>
           <t>BALEARES</t>
@@ -3090,7 +3158,7 @@
       <c r="AZ19" s="1" t="inlineStr"/>
       <c r="BA19" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="20">
+    <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="22" t="inlineStr">
         <is>
           <t>ST GREEN</t>
@@ -3211,7 +3279,7 @@
       <c r="AZ20" s="1" t="inlineStr"/>
       <c r="BA20" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="21">
+    <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="22" t="inlineStr">
         <is>
           <t>SPECTRUM N</t>
@@ -3332,7 +3400,7 @@
       <c r="AZ21" s="1" t="inlineStr"/>
       <c r="BA21" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="22">
+    <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="27" t="inlineStr">
         <is>
           <t>(R1) - Use Yantian PHKG S Feeder and connect at Hong Kong</t>
@@ -3391,7 +3459,7 @@
       <c r="AZ22" s="1" t="inlineStr"/>
       <c r="BA22" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="23">
+    <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="27" t="inlineStr">
         <is>
           <t>(R3) - Use Shantou PHKG Feeder and connect at Xiamen</t>
@@ -3450,7 +3518,7 @@
       <c r="AZ23" s="1" t="inlineStr"/>
       <c r="BA23" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="24">
+    <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="32" t="inlineStr">
         <is>
           <t>Also accepting :  Chiba via Yokohama</t>
@@ -3509,7 +3577,7 @@
       <c r="AZ24" s="1" t="inlineStr"/>
       <c r="BA24" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="25">
+    <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">                           Hiroshima, Hibiki, Imabari, Iyomishima, Matsuyama, Mizushima, Shibushi, Tokuyama via Kobe</t>
@@ -3568,7 +3636,7 @@
       <c r="AZ25" s="1" t="inlineStr"/>
       <c r="BA25" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="26">
+    <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="32" t="inlineStr"/>
       <c r="B26" s="33" t="inlineStr"/>
       <c r="C26" s="34" t="inlineStr"/>
@@ -3623,7 +3691,7 @@
       <c r="AZ26" s="1" t="inlineStr"/>
       <c r="BA26" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="27">
+    <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="36" t="inlineStr">
         <is>
           <t>KTX2</t>
@@ -3682,7 +3750,7 @@
       <c r="AZ27" s="1" t="inlineStr"/>
       <c r="BA27" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="28">
+    <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="8" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -3765,7 +3833,7 @@
       <c r="AZ28" s="1" t="inlineStr"/>
       <c r="BA28" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="38.1" r="29">
+    <row r="29" ht="38.1" customHeight="1">
       <c r="A29" s="14" t="inlineStr"/>
       <c r="B29" s="14" t="inlineStr"/>
       <c r="C29" s="15" t="inlineStr">
@@ -3903,7 +3971,7 @@
       <c r="AZ29" s="1" t="inlineStr"/>
       <c r="BA29" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="19" t="inlineStr"/>
       <c r="B30" s="19" t="inlineStr"/>
       <c r="C30" s="19" t="inlineStr">
@@ -4026,7 +4094,7 @@
       <c r="AZ30" s="1" t="inlineStr"/>
       <c r="BA30" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="31">
+    <row r="31" ht="18.75" customHeight="1">
       <c r="A31" s="22" t="inlineStr">
         <is>
           <t>OOCL LE HAVRE</t>
@@ -4135,7 +4203,7 @@
       <c r="AZ31" s="1" t="inlineStr"/>
       <c r="BA31" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="32">
+    <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="22" t="inlineStr">
         <is>
           <t>OOCL NAGOYA</t>
@@ -4244,7 +4312,7 @@
       <c r="AZ32" s="1" t="inlineStr"/>
       <c r="BA32" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="33">
+    <row r="33" ht="18.75" customHeight="1">
       <c r="A33" s="22" t="inlineStr">
         <is>
           <t>OOCL CHARLESTON</t>
@@ -4353,7 +4421,7 @@
       <c r="AZ33" s="1" t="inlineStr"/>
       <c r="BA33" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="34">
+    <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="22" t="inlineStr">
         <is>
           <t>OOCL LE HAVRE</t>
@@ -4462,7 +4530,7 @@
       <c r="AZ34" s="1" t="inlineStr"/>
       <c r="BA34" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="35">
+    <row r="35" ht="18.75" customHeight="1">
       <c r="A35" s="22" t="inlineStr">
         <is>
           <t>OOCL NAGOYA</t>
@@ -4571,7 +4639,7 @@
       <c r="AZ35" s="1" t="inlineStr"/>
       <c r="BA35" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="36">
+    <row r="36" ht="18.75" customHeight="1">
       <c r="A36" s="22" t="inlineStr">
         <is>
           <t>OOCL CHARLESTON</t>
@@ -4680,7 +4748,7 @@
       <c r="AZ36" s="1" t="inlineStr"/>
       <c r="BA36" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="37">
+    <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="22" t="inlineStr">
         <is>
           <t>OOCL LE HAVRE</t>
@@ -4789,7 +4857,7 @@
       <c r="AZ37" s="1" t="inlineStr"/>
       <c r="BA37" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="38">
+    <row r="38" ht="18.75" customHeight="1">
       <c r="A38" s="22" t="inlineStr">
         <is>
           <t>OOCL NAGOYA</t>
@@ -4898,7 +4966,7 @@
       <c r="AZ38" s="1" t="inlineStr"/>
       <c r="BA38" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="39">
+    <row r="39" ht="18.75" customHeight="1">
       <c r="A39" s="27" t="inlineStr">
         <is>
           <t>(R1) - Use Yantian PHKG S Feeder and connect at Hong Kong</t>
@@ -4957,7 +5025,7 @@
       <c r="AZ39" s="1" t="inlineStr"/>
       <c r="BA39" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="40">
+    <row r="40" ht="18.75" customHeight="1">
       <c r="A40" s="32" t="inlineStr">
         <is>
           <t>Also accepting :  Chiba via Yokohama</t>
@@ -5016,7 +5084,7 @@
       <c r="AZ40" s="1" t="inlineStr"/>
       <c r="BA40" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="41">
+    <row r="41" ht="18.75" customHeight="1">
       <c r="A41" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">                           Hiroshima, Hibiki, Imabari, Iyomishima, Matsuyama, Mizushima, Shibushi, Tokuyama via Kobe</t>
@@ -5075,7 +5143,7 @@
       <c r="AZ41" s="1" t="inlineStr"/>
       <c r="BA41" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="42">
+    <row r="42" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="inlineStr"/>
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr"/>
@@ -5130,7 +5198,7 @@
       <c r="AZ42" s="1" t="inlineStr"/>
       <c r="BA42" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="43">
+    <row r="43" ht="18.75" customHeight="1">
       <c r="A43" s="36" t="inlineStr">
         <is>
           <t>KTX3</t>
@@ -5189,7 +5257,7 @@
       <c r="AZ43" s="1" t="inlineStr"/>
       <c r="BA43" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="44">
+    <row r="44" ht="18.75" customHeight="1">
       <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -5272,7 +5340,7 @@
       <c r="AZ44" s="1" t="inlineStr"/>
       <c r="BA44" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="38.1" r="45">
+    <row r="45" ht="38.1" customHeight="1">
       <c r="A45" s="14" t="inlineStr"/>
       <c r="B45" s="15" t="inlineStr"/>
       <c r="C45" s="15" t="inlineStr">
@@ -5406,7 +5474,7 @@
       <c r="AZ45" s="1" t="inlineStr"/>
       <c r="BA45" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="19" t="inlineStr"/>
       <c r="B46" s="19" t="inlineStr"/>
       <c r="C46" s="19" t="inlineStr">
@@ -5513,7 +5581,7 @@
       <c r="AZ46" s="1" t="inlineStr"/>
       <c r="BA46" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="47">
+    <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="22" t="inlineStr">
         <is>
           <t>OOCL JAKARTA</t>
@@ -5620,7 +5688,7 @@
       <c r="AZ47" s="1" t="inlineStr"/>
       <c r="BA47" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="48">
+    <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="22" t="inlineStr">
         <is>
           <t>OOCL NEW ZEALAND</t>
@@ -5727,7 +5795,7 @@
       <c r="AZ48" s="1" t="inlineStr"/>
       <c r="BA48" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="49">
+    <row r="49" ht="18.75" customHeight="1">
       <c r="A49" s="22" t="inlineStr">
         <is>
           <t>OOCL SAVANNAH</t>
@@ -5834,7 +5902,7 @@
       <c r="AZ49" s="1" t="inlineStr"/>
       <c r="BA49" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="50">
+    <row r="50" ht="18.75" customHeight="1">
       <c r="A50" s="22" t="inlineStr">
         <is>
           <t>OOCL AUSTRALIA</t>
@@ -5941,7 +6009,7 @@
       <c r="AZ50" s="1" t="inlineStr"/>
       <c r="BA50" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="51">
+    <row r="51" ht="18.75" customHeight="1">
       <c r="A51" s="22" t="inlineStr">
         <is>
           <t>OOCL JAKARTA</t>
@@ -6048,7 +6116,7 @@
       <c r="AZ51" s="1" t="inlineStr"/>
       <c r="BA51" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="52">
+    <row r="52" ht="18.75" customHeight="1">
       <c r="A52" s="22" t="inlineStr">
         <is>
           <t>OOCL NEW ZEALAND</t>
@@ -6155,7 +6223,7 @@
       <c r="AZ52" s="1" t="inlineStr"/>
       <c r="BA52" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="53">
+    <row r="53" ht="18.75" customHeight="1">
       <c r="A53" s="22" t="inlineStr">
         <is>
           <t>OOCL SAVANNAH</t>
@@ -6262,7 +6330,7 @@
       <c r="AZ53" s="1" t="inlineStr"/>
       <c r="BA53" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="54">
+    <row r="54" ht="18.75" customHeight="1">
       <c r="A54" s="22" t="inlineStr">
         <is>
           <t>OOCL AUSTRALIA</t>
@@ -6369,7 +6437,7 @@
       <c r="AZ54" s="1" t="inlineStr"/>
       <c r="BA54" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="55">
+    <row r="55" ht="18.75" customHeight="1">
       <c r="A55" s="27" t="inlineStr">
         <is>
           <t>(R1) - Use Yantian PHKG S Feeder and connect at Hong Kong</t>
@@ -6428,7 +6496,7 @@
       <c r="AZ55" s="1" t="inlineStr"/>
       <c r="BA55" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="27" t="inlineStr">
         <is>
           <t>(R2) -  Till Mar 6, use Shekou PHF2 or PHKG S Service and connect at Hong Kong:  From Mar 14, KTX3-N will direct call Shekou.</t>
@@ -6487,7 +6555,7 @@
       <c r="AZ56" s="1" t="inlineStr"/>
       <c r="BA56" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="57">
+    <row r="57" ht="18.75" customHeight="1">
       <c r="A57" s="43" t="inlineStr">
         <is>
           <t>Also accepting :  Hiroshima, Hibiki, Imabari, Iyomishima, Matsuyama, Mizushima, Shibushi, Tokuyama via Kobe</t>
@@ -6546,7 +6614,7 @@
       <c r="AZ57" s="46" t="inlineStr"/>
       <c r="BA57" s="46" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="58">
+    <row r="58" ht="18.75" customHeight="1">
       <c r="A58" s="47" t="inlineStr"/>
       <c r="B58" s="48" t="inlineStr"/>
       <c r="C58" s="30" t="inlineStr"/>
@@ -6601,7 +6669,7 @@
       <c r="AZ58" s="1" t="inlineStr"/>
       <c r="BA58" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="59">
+    <row r="59" ht="18.75" customHeight="1">
       <c r="A59" s="36" t="inlineStr">
         <is>
           <t>KTX5</t>
@@ -6660,7 +6728,7 @@
       <c r="AZ59" s="1" t="inlineStr"/>
       <c r="BA59" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="60">
+    <row r="60" ht="18.75" customHeight="1">
       <c r="A60" s="8" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -6739,7 +6807,7 @@
       <c r="AZ60" s="1" t="inlineStr"/>
       <c r="BA60" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="38.1" r="61">
+    <row r="61" ht="38.1" customHeight="1">
       <c r="A61" s="14" t="inlineStr"/>
       <c r="B61" s="15" t="inlineStr"/>
       <c r="C61" s="15" t="inlineStr">
@@ -6856,7 +6924,7 @@
       <c r="AZ61" s="1" t="inlineStr"/>
       <c r="BA61" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="19" t="inlineStr"/>
       <c r="B62" s="19" t="inlineStr"/>
       <c r="C62" s="19" t="inlineStr">
@@ -6963,7 +7031,7 @@
       <c r="AZ62" s="1" t="inlineStr"/>
       <c r="BA62" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="63">
+    <row r="63" ht="18.75" customHeight="1">
       <c r="A63" s="22" t="inlineStr">
         <is>
           <t>BEAR MOUNTAIN BRIDGE</t>
@@ -7060,7 +7128,7 @@
       <c r="AZ63" s="1" t="inlineStr"/>
       <c r="BA63" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="64">
+    <row r="64" ht="18.75" customHeight="1">
       <c r="A64" s="22" t="inlineStr">
         <is>
           <t>NYK DIANA</t>
@@ -7157,7 +7225,7 @@
       <c r="AZ64" s="1" t="inlineStr"/>
       <c r="BA64" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="65">
+    <row r="65" ht="18.75" customHeight="1">
       <c r="A65" s="22" t="inlineStr">
         <is>
           <t>MOL EARNEST</t>
@@ -7254,7 +7322,7 @@
       <c r="AZ65" s="1" t="inlineStr"/>
       <c r="BA65" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="66">
+    <row r="66" ht="18.75" customHeight="1">
       <c r="A66" s="22" t="inlineStr">
         <is>
           <t>SEASPAN EMERALD</t>
@@ -7351,7 +7419,7 @@
       <c r="AZ66" s="1" t="inlineStr"/>
       <c r="BA66" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="67">
+    <row r="67" ht="18.75" customHeight="1">
       <c r="A67" s="22" t="inlineStr">
         <is>
           <t>BEAR MOUNTAIN BRIDGE</t>
@@ -7448,7 +7516,7 @@
       <c r="AZ67" s="1" t="inlineStr"/>
       <c r="BA67" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="68">
+    <row r="68" ht="18.75" customHeight="1">
       <c r="A68" s="22" t="inlineStr">
         <is>
           <t>NYK DIANA</t>
@@ -7545,7 +7613,7 @@
       <c r="AZ68" s="1" t="inlineStr"/>
       <c r="BA68" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="69">
+    <row r="69" ht="18.75" customHeight="1">
       <c r="A69" s="22" t="inlineStr">
         <is>
           <t>MOL EARNEST</t>
@@ -7642,7 +7710,7 @@
       <c r="AZ69" s="1" t="inlineStr"/>
       <c r="BA69" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="70">
+    <row r="70" ht="18.75" customHeight="1">
       <c r="A70" s="22" t="inlineStr">
         <is>
           <t>SEASPAN EMERALD</t>
@@ -7739,7 +7807,7 @@
       <c r="AZ70" s="1" t="inlineStr"/>
       <c r="BA70" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="71">
+    <row r="71" ht="18.75" customHeight="1">
       <c r="A71" s="32" t="inlineStr">
         <is>
           <t>Also accepting :  Chiba via Yokohama</t>
@@ -7798,7 +7866,7 @@
       <c r="AZ71" s="1" t="inlineStr"/>
       <c r="BA71" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="72">
+    <row r="72" ht="18.75" customHeight="1">
       <c r="A72" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">                           Hiroshima, Hibiki, Imabari, Iyomishima, Matsuyama, Mizushima, Shibushi, Tokuyama via Kobe</t>
@@ -7857,7 +7925,7 @@
       <c r="AZ72" s="1" t="inlineStr"/>
       <c r="BA72" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="73">
+    <row r="73" ht="18.75" customHeight="1">
       <c r="A73" s="35" t="inlineStr"/>
       <c r="B73" s="35" t="inlineStr"/>
       <c r="C73" s="35" t="inlineStr"/>
@@ -7912,7 +7980,7 @@
       <c r="AZ73" s="1" t="inlineStr"/>
       <c r="BA73" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="74">
+    <row r="74" ht="18.75" customHeight="1">
       <c r="A74" s="36" t="inlineStr">
         <is>
           <t>KTX6</t>
@@ -7971,7 +8039,7 @@
       <c r="AZ74" s="1" t="inlineStr"/>
       <c r="BA74" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="75">
+    <row r="75" ht="18.75" customHeight="1">
       <c r="A75" s="50" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -8054,7 +8122,7 @@
       <c r="AZ75" s="1" t="inlineStr"/>
       <c r="BA75" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="38.1" r="76">
+    <row r="76" ht="38.1" customHeight="1">
       <c r="A76" s="52" t="inlineStr"/>
       <c r="B76" s="52" t="inlineStr"/>
       <c r="C76" s="14" t="inlineStr">
@@ -8192,7 +8260,7 @@
       <c r="AZ76" s="1" t="inlineStr"/>
       <c r="BA76" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="19" t="inlineStr"/>
       <c r="B77" s="19" t="inlineStr"/>
       <c r="C77" s="19" t="inlineStr">
@@ -8315,7 +8383,7 @@
       <c r="AZ77" s="1" t="inlineStr"/>
       <c r="BA77" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="78">
+    <row r="78" ht="18.75" customHeight="1">
       <c r="A78" s="22" t="inlineStr">
         <is>
           <t>INTERASIA HERITAGE</t>
@@ -8424,7 +8492,7 @@
       <c r="AZ78" s="1" t="inlineStr"/>
       <c r="BA78" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="79">
+    <row r="79" ht="18.75" customHeight="1">
       <c r="A79" s="22" t="inlineStr">
         <is>
           <t>WAN HAI 501</t>
@@ -8533,7 +8601,7 @@
       <c r="AZ79" s="1" t="inlineStr"/>
       <c r="BA79" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="80">
+    <row r="80" ht="18.75" customHeight="1">
       <c r="A80" s="22" t="inlineStr">
         <is>
           <t>OOCL DALIAN</t>
@@ -8642,7 +8710,7 @@
       <c r="AZ80" s="1" t="inlineStr"/>
       <c r="BA80" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="81">
+    <row r="81" ht="18.75" customHeight="1">
       <c r="A81" s="22" t="inlineStr">
         <is>
           <t>WAN HAI 510</t>
@@ -8751,7 +8819,7 @@
       <c r="AZ81" s="1" t="inlineStr"/>
       <c r="BA81" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="82">
+    <row r="82" ht="18.75" customHeight="1">
       <c r="A82" s="22" t="inlineStr">
         <is>
           <t>INTERASIA HERITAGE</t>
@@ -8860,7 +8928,7 @@
       <c r="AZ82" s="1" t="inlineStr"/>
       <c r="BA82" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="83">
+    <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="22" t="inlineStr">
         <is>
           <t>WAN HAI 501</t>
@@ -8969,7 +9037,7 @@
       <c r="AZ83" s="1" t="inlineStr"/>
       <c r="BA83" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="84">
+    <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="22" t="inlineStr">
         <is>
           <t>OOCL DALIAN</t>
@@ -9078,7 +9146,7 @@
       <c r="AZ84" s="1" t="inlineStr"/>
       <c r="BA84" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="85">
+    <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="22" t="inlineStr">
         <is>
           <t>WAN HAI 510</t>
@@ -9187,7 +9255,7 @@
       <c r="AZ85" s="1" t="inlineStr"/>
       <c r="BA85" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="86">
+    <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="53" t="inlineStr">
         <is>
           <t>(R1) - Use Yantian PHKG Feeder and connect at Hong Kong</t>
@@ -9246,7 +9314,7 @@
       <c r="AZ86" s="53" t="inlineStr"/>
       <c r="BA86" s="53" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.75" r="87">
+    <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="32" t="inlineStr">
         <is>
           <t>Also accepting :  Chiba via Yokohama</t>
@@ -9305,7 +9373,7 @@
       <c r="AZ87" s="1" t="inlineStr"/>
       <c r="BA87" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="47" t="inlineStr"/>
       <c r="B88" s="48" t="inlineStr"/>
       <c r="C88" s="35" t="inlineStr"/>
@@ -9360,7 +9428,7 @@
       <c r="AZ88" s="1" t="inlineStr"/>
       <c r="BA88" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="36" t="inlineStr">
         <is>
           <t>KTX7</t>
@@ -9419,7 +9487,7 @@
       <c r="AZ89" s="1" t="inlineStr"/>
       <c r="BA89" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="50" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -9494,7 +9562,7 @@
       <c r="AZ90" s="1" t="inlineStr"/>
       <c r="BA90" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="52" t="inlineStr"/>
       <c r="B91" s="52" t="inlineStr"/>
       <c r="C91" s="15" t="inlineStr">
@@ -9586,7 +9654,7 @@
       <c r="AZ91" s="1" t="inlineStr"/>
       <c r="BA91" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="19" t="inlineStr"/>
       <c r="B92" s="19" t="inlineStr"/>
       <c r="C92" s="19" t="inlineStr">
@@ -9673,7 +9741,7 @@
       <c r="AZ92" s="1" t="inlineStr"/>
       <c r="BA92" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="22" t="inlineStr"/>
       <c r="B93" s="23" t="inlineStr"/>
       <c r="C93" s="24" t="e">
@@ -9746,7 +9814,7 @@
       <c r="AZ93" s="1" t="inlineStr"/>
       <c r="BA93" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="22" t="inlineStr"/>
       <c r="B94" s="23" t="inlineStr"/>
       <c r="C94" s="24" t="e">
@@ -9819,7 +9887,7 @@
       <c r="AZ94" s="1" t="inlineStr"/>
       <c r="BA94" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="22" t="inlineStr"/>
       <c r="B95" s="23" t="inlineStr"/>
       <c r="C95" s="24" t="e">
@@ -9892,7 +9960,7 @@
       <c r="AZ95" s="1" t="inlineStr"/>
       <c r="BA95" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="22" t="inlineStr"/>
       <c r="B96" s="23" t="inlineStr"/>
       <c r="C96" s="24" t="e">
@@ -9965,7 +10033,7 @@
       <c r="AZ96" s="1" t="inlineStr"/>
       <c r="BA96" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="22" t="inlineStr"/>
       <c r="B97" s="23" t="inlineStr"/>
       <c r="C97" s="24" t="e">
@@ -10038,7 +10106,7 @@
       <c r="AZ97" s="1" t="inlineStr"/>
       <c r="BA97" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="22" t="inlineStr"/>
       <c r="B98" s="23" t="inlineStr"/>
       <c r="C98" s="24" t="e">
@@ -10111,7 +10179,7 @@
       <c r="AZ98" s="1" t="inlineStr"/>
       <c r="BA98" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="22" t="inlineStr"/>
       <c r="B99" s="23" t="inlineStr"/>
       <c r="C99" s="24" t="e">
@@ -10184,7 +10252,7 @@
       <c r="AZ99" s="1" t="inlineStr"/>
       <c r="BA99" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="22" t="inlineStr"/>
       <c r="B100" s="23" t="inlineStr"/>
       <c r="C100" s="24" t="e">
@@ -10257,7 +10325,7 @@
       <c r="AZ100" s="1" t="inlineStr"/>
       <c r="BA100" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="47" t="inlineStr"/>
       <c r="B101" s="48" t="inlineStr"/>
       <c r="C101" s="30" t="inlineStr"/>
@@ -10312,7 +10380,7 @@
       <c r="AZ101" s="53" t="inlineStr"/>
       <c r="BA101" s="53" t="inlineStr"/>
     </row>
-    <row hidden="1" r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="36" t="inlineStr">
         <is>
           <t>KTX7</t>
@@ -10371,7 +10439,7 @@
       <c r="AZ102" s="53" t="inlineStr"/>
       <c r="BA102" s="53" t="inlineStr"/>
     </row>
-    <row hidden="1" r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="50" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -10446,7 +10514,7 @@
       <c r="AZ103" s="1" t="inlineStr"/>
       <c r="BA103" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="52" t="inlineStr"/>
       <c r="B104" s="52" t="inlineStr"/>
       <c r="C104" s="15" t="inlineStr">
@@ -10538,7 +10606,7 @@
       <c r="AZ104" s="1" t="inlineStr"/>
       <c r="BA104" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="55" t="inlineStr"/>
       <c r="B105" s="55" t="inlineStr"/>
       <c r="C105" s="56" t="n">
@@ -10611,7 +10679,7 @@
       <c r="AZ105" s="1" t="inlineStr"/>
       <c r="BA105" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="22" t="inlineStr"/>
       <c r="B106" s="23" t="inlineStr"/>
       <c r="C106" s="24" t="e">
@@ -10684,7 +10752,7 @@
       <c r="AZ106" s="1" t="inlineStr"/>
       <c r="BA106" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="22" t="inlineStr"/>
       <c r="B107" s="23" t="inlineStr"/>
       <c r="C107" s="24" t="e">
@@ -10757,7 +10825,7 @@
       <c r="AZ107" s="1" t="inlineStr"/>
       <c r="BA107" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="22" t="inlineStr"/>
       <c r="B108" s="23" t="inlineStr"/>
       <c r="C108" s="24" t="e">
@@ -10830,7 +10898,7 @@
       <c r="AZ108" s="1" t="inlineStr"/>
       <c r="BA108" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="22" t="inlineStr"/>
       <c r="B109" s="23" t="inlineStr"/>
       <c r="C109" s="24" t="e">
@@ -10903,7 +10971,7 @@
       <c r="AZ109" s="1" t="inlineStr"/>
       <c r="BA109" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="22" t="inlineStr"/>
       <c r="B110" s="23" t="inlineStr"/>
       <c r="C110" s="24" t="e">
@@ -10976,7 +11044,7 @@
       <c r="AZ110" s="1" t="inlineStr"/>
       <c r="BA110" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="22" t="inlineStr"/>
       <c r="B111" s="23" t="inlineStr"/>
       <c r="C111" s="24" t="e">
@@ -11049,7 +11117,7 @@
       <c r="AZ111" s="1" t="inlineStr"/>
       <c r="BA111" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="22" t="inlineStr"/>
       <c r="B112" s="23" t="inlineStr"/>
       <c r="C112" s="24" t="e">
@@ -11122,7 +11190,7 @@
       <c r="AZ112" s="1" t="inlineStr"/>
       <c r="BA112" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="22" t="inlineStr"/>
       <c r="B113" s="23" t="inlineStr"/>
       <c r="C113" s="24" t="e">
@@ -11195,7 +11263,7 @@
       <c r="AZ113" s="1" t="inlineStr"/>
       <c r="BA113" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="53" t="inlineStr">
         <is>
           <t>(R3) - Use Shantou PHKG Feeder and connect at Xiamen</t>
@@ -11254,7 +11322,7 @@
       <c r="AZ114" s="1" t="inlineStr"/>
       <c r="BA114" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="1" t="inlineStr"/>
       <c r="B115" s="1" t="inlineStr"/>
       <c r="C115" s="1" t="inlineStr"/>
@@ -11309,7 +11377,7 @@
       <c r="AZ115" s="1" t="inlineStr"/>
       <c r="BA115" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="36" t="inlineStr">
         <is>
           <t>JKH</t>
@@ -11368,7 +11436,7 @@
       <c r="AZ116" s="1" t="inlineStr"/>
       <c r="BA116" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="50" t="inlineStr">
         <is>
           <t>Vessel</t>
@@ -11447,7 +11515,7 @@
       <c r="AZ117" s="1" t="inlineStr"/>
       <c r="BA117" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="52" t="inlineStr"/>
       <c r="B118" s="52" t="inlineStr"/>
       <c r="C118" s="15" t="inlineStr">
@@ -11552,7 +11620,7 @@
       <c r="AZ118" s="1" t="inlineStr"/>
       <c r="BA118" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="19" t="inlineStr"/>
       <c r="B119" s="19" t="inlineStr"/>
       <c r="C119" s="19" t="inlineStr">
@@ -11647,7 +11715,7 @@
       <c r="AZ119" s="1" t="inlineStr"/>
       <c r="BA119" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="22" t="inlineStr"/>
       <c r="B120" s="23" t="inlineStr"/>
       <c r="C120" s="24" t="e">
@@ -11726,7 +11794,7 @@
       <c r="AZ120" s="1" t="inlineStr"/>
       <c r="BA120" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="22" t="inlineStr"/>
       <c r="B121" s="23" t="inlineStr"/>
       <c r="C121" s="24" t="e">
@@ -11805,7 +11873,7 @@
       <c r="AZ121" s="1" t="inlineStr"/>
       <c r="BA121" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="22" t="inlineStr"/>
       <c r="B122" s="23" t="inlineStr"/>
       <c r="C122" s="24" t="e">
@@ -11884,7 +11952,7 @@
       <c r="AZ122" s="1" t="inlineStr"/>
       <c r="BA122" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="22" t="inlineStr"/>
       <c r="B123" s="23" t="inlineStr"/>
       <c r="C123" s="24" t="e">
@@ -11963,7 +12031,7 @@
       <c r="AZ123" s="1" t="inlineStr"/>
       <c r="BA123" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="22" t="inlineStr"/>
       <c r="B124" s="23" t="inlineStr"/>
       <c r="C124" s="24" t="e">
@@ -12042,7 +12110,7 @@
       <c r="AZ124" s="1" t="inlineStr"/>
       <c r="BA124" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="22" t="inlineStr"/>
       <c r="B125" s="23" t="inlineStr"/>
       <c r="C125" s="24" t="e">
@@ -12121,7 +12189,7 @@
       <c r="AZ125" s="1" t="inlineStr"/>
       <c r="BA125" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="22" t="inlineStr"/>
       <c r="B126" s="23" t="inlineStr"/>
       <c r="C126" s="24" t="e">
@@ -12200,7 +12268,7 @@
       <c r="AZ126" s="1" t="inlineStr"/>
       <c r="BA126" s="1" t="inlineStr"/>
     </row>
-    <row hidden="1" r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="22" t="inlineStr"/>
       <c r="B127" s="23" t="inlineStr"/>
       <c r="C127" s="24" t="e">
@@ -12279,7 +12347,7 @@
       <c r="AZ127" s="1" t="inlineStr"/>
       <c r="BA127" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="128">
+    <row r="128" ht="18.6" customHeight="1">
       <c r="A128" s="47" t="inlineStr"/>
       <c r="B128" s="48" t="inlineStr"/>
       <c r="C128" s="30" t="inlineStr"/>
@@ -12334,7 +12402,7 @@
       <c r="AZ128" s="1" t="inlineStr"/>
       <c r="BA128" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="129">
+    <row r="129" ht="18.6" customHeight="1">
       <c r="A129" s="57" t="inlineStr">
         <is>
           <t xml:space="preserve"> Remark :</t>
@@ -12393,7 +12461,7 @@
       <c r="AZ129" s="1" t="inlineStr"/>
       <c r="BA129" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="130">
+    <row r="130" ht="18.6" customHeight="1">
       <c r="A130" s="57" t="inlineStr">
         <is>
           <t>* For Special Cargoes (reefer, dangerous, project &amp; awkward) CY Open, please refer to below links in our website:</t>
@@ -12452,7 +12520,7 @@
       <c r="AZ130" s="1" t="inlineStr"/>
       <c r="BA130" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="131">
+    <row r="131" ht="18.6" customHeight="1">
       <c r="A131" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">  - HKG Demurrage &amp; Detention Free Time and Charges</t>
@@ -12511,7 +12579,7 @@
       <c r="AZ131" s="1" t="inlineStr"/>
       <c r="BA131" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="132">
+    <row r="132" ht="18.6" customHeight="1">
       <c r="A132" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">  - South PRC Demurrage &amp; Detention Free Time and Charges</t>
@@ -12570,7 +12638,7 @@
       <c r="AZ132" s="1" t="inlineStr"/>
       <c r="BA132" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="133">
+    <row r="133" ht="18.6" customHeight="1">
       <c r="A133" s="57" t="inlineStr"/>
       <c r="B133" s="48" t="inlineStr"/>
       <c r="C133" s="30" t="inlineStr"/>
@@ -12625,7 +12693,7 @@
       <c r="AZ133" s="1" t="inlineStr"/>
       <c r="BA133" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="134">
+    <row r="134" ht="18.6" customHeight="1">
       <c r="A134" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">Note: Schedule &amp; Cutoffs are subject to change with or without prior notice. Please make use our website www.oocl.com Cargo Tracking / Sailing Schedule to keep abreast of the most updated cargo / schedule information in details. 
@@ -12685,7 +12753,7 @@
       <c r="AZ134" s="1" t="inlineStr"/>
       <c r="BA134" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="135">
+    <row r="135" ht="18.6" customHeight="1">
       <c r="A135" s="60" t="inlineStr"/>
       <c r="B135" s="1" t="inlineStr"/>
       <c r="C135" s="1" t="inlineStr"/>
@@ -12740,7 +12808,7 @@
       <c r="AZ135" s="1" t="inlineStr"/>
       <c r="BA135" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="136">
+    <row r="136" ht="18.6" customHeight="1">
       <c r="A136" s="61" t="inlineStr">
         <is>
           <t>For more sailing schedule, please visit :</t>
@@ -12803,7 +12871,7 @@
       <c r="AZ136" s="1" t="inlineStr"/>
       <c r="BA136" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="137">
+    <row r="137" ht="18.6" customHeight="1">
       <c r="A137" s="63" t="inlineStr"/>
       <c r="B137" s="1" t="inlineStr"/>
       <c r="C137" s="1" t="inlineStr"/>
@@ -12858,7 +12926,7 @@
       <c r="AZ137" s="1" t="inlineStr"/>
       <c r="BA137" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="138" thickBot="1">
+    <row r="138" ht="18.6" customHeight="1" thickBot="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">For other customer service issue, please do not hesitate to contact our local representatives. </t>
@@ -12917,7 +12985,7 @@
       <c r="AZ138" s="1" t="inlineStr"/>
       <c r="BA138" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="139" thickBot="1">
+    <row r="139" ht="18.6" customHeight="1" thickBot="1">
       <c r="A139" s="64" t="inlineStr">
         <is>
           <t xml:space="preserve"> Scope </t>
@@ -12988,7 +13056,7 @@
       <c r="AZ139" s="1" t="inlineStr"/>
       <c r="BA139" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="140" thickBot="1">
+    <row r="140" ht="18.6" customHeight="1" thickBot="1">
       <c r="A140" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve"> General Customer Service </t>
@@ -13059,7 +13127,7 @@
       <c r="AZ140" s="1" t="inlineStr"/>
       <c r="BA140" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="141" thickBot="1">
+    <row r="141" ht="18.6" customHeight="1" thickBot="1">
       <c r="A141" s="74" t="inlineStr"/>
       <c r="B141" s="69" t="inlineStr">
         <is>
@@ -13126,7 +13194,7 @@
       <c r="AZ141" s="1" t="inlineStr"/>
       <c r="BA141" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="142" thickBot="1">
+    <row r="142" ht="18.6" customHeight="1" thickBot="1">
       <c r="A142" s="74" t="inlineStr"/>
       <c r="B142" s="69" t="inlineStr">
         <is>
@@ -13193,7 +13261,7 @@
       <c r="AZ142" s="1" t="inlineStr"/>
       <c r="BA142" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="143" thickBot="1">
+    <row r="143" ht="18.6" customHeight="1" thickBot="1">
       <c r="A143" s="74" t="inlineStr"/>
       <c r="B143" s="69" t="inlineStr">
         <is>
@@ -13260,7 +13328,7 @@
       <c r="AZ143" s="1" t="inlineStr"/>
       <c r="BA143" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="144" thickBot="1">
+    <row r="144" ht="18.6" customHeight="1" thickBot="1">
       <c r="A144" s="74" t="inlineStr"/>
       <c r="B144" s="69" t="inlineStr">
         <is>
@@ -13327,7 +13395,7 @@
       <c r="AZ144" s="1" t="inlineStr"/>
       <c r="BA144" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="145" thickBot="1">
+    <row r="145" ht="18.6" customHeight="1" thickBot="1">
       <c r="A145" s="74" t="inlineStr"/>
       <c r="B145" s="69" t="inlineStr">
         <is>
@@ -13394,7 +13462,7 @@
       <c r="AZ145" s="1" t="inlineStr"/>
       <c r="BA145" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="146" thickBot="1">
+    <row r="146" ht="18.6" customHeight="1" thickBot="1">
       <c r="A146" s="74" t="inlineStr"/>
       <c r="B146" s="69" t="inlineStr">
         <is>
@@ -13461,7 +13529,7 @@
       <c r="AZ146" s="1" t="inlineStr"/>
       <c r="BA146" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="147" thickBot="1">
+    <row r="147" ht="18.6" customHeight="1" thickBot="1">
       <c r="A147" s="74" t="inlineStr"/>
       <c r="B147" s="69" t="inlineStr">
         <is>
@@ -13528,7 +13596,7 @@
       <c r="AZ147" s="1" t="inlineStr"/>
       <c r="BA147" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="148" thickBot="1">
+    <row r="148" ht="18.6" customHeight="1" thickBot="1">
       <c r="A148" s="75" t="inlineStr"/>
       <c r="B148" s="69" t="inlineStr">
         <is>
@@ -13595,7 +13663,7 @@
       <c r="AZ148" s="1" t="inlineStr"/>
       <c r="BA148" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="18.6" r="149" thickBot="1">
+    <row r="149" ht="18.6" customHeight="1" thickBot="1">
       <c r="A149" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve"> Reefer Customer Service </t>
@@ -13666,7 +13734,7 @@
       <c r="AZ149" s="1" t="inlineStr"/>
       <c r="BA149" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15.75" r="150" thickBot="1">
+    <row r="150" ht="15.75" customHeight="1" thickBot="1">
       <c r="A150" s="75" t="inlineStr"/>
       <c r="B150" s="76" t="inlineStr">
         <is>
@@ -13733,7 +13801,7 @@
       <c r="AZ150" s="1" t="inlineStr"/>
       <c r="BA150" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="151">
+    <row r="151" ht="15" customHeight="1">
       <c r="A151" s="1" t="inlineStr"/>
       <c r="B151" s="37" t="inlineStr"/>
       <c r="C151" s="37" t="inlineStr"/>
@@ -13788,7 +13856,7 @@
       <c r="AZ151" s="1" t="inlineStr"/>
       <c r="BA151" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="152">
+    <row r="152" ht="15" customHeight="1">
       <c r="A152" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">Updated on </t>
@@ -13849,7 +13917,7 @@
       <c r="AZ152" s="1" t="inlineStr"/>
       <c r="BA152" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="153">
+    <row r="153" ht="15" customHeight="1">
       <c r="A153" s="81" t="inlineStr">
         <is>
           <t>** The sailing schedules/vessels are subject to change without prior notice.</t>
@@ -13908,7 +13976,7 @@
       <c r="AZ153" s="1" t="inlineStr"/>
       <c r="BA153" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="154">
+    <row r="154" ht="15" customHeight="1">
       <c r="A154" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright © 1998 - 2020 Orient Overseas Container Line Limited. All rights reserved. Copyright Infringement Policy .   Use of this website and information available from it is subject to Terms of Use and Privacy and Security Statement. </t>
@@ -13967,7 +14035,7 @@
       <c r="AZ154" s="1" t="inlineStr"/>
       <c r="BA154" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="155">
+    <row r="155" ht="15" customHeight="1">
       <c r="A155" s="1" t="inlineStr"/>
       <c r="B155" s="1" t="inlineStr"/>
       <c r="C155" s="1" t="inlineStr"/>
@@ -14022,7 +14090,7 @@
       <c r="AZ155" s="1" t="inlineStr"/>
       <c r="BA155" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="156">
+    <row r="156" ht="15" customHeight="1">
       <c r="A156" s="1" t="inlineStr"/>
       <c r="B156" s="1" t="inlineStr"/>
       <c r="C156" s="1" t="inlineStr"/>
@@ -14077,7 +14145,7 @@
       <c r="AZ156" s="1" t="inlineStr"/>
       <c r="BA156" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="157">
+    <row r="157" ht="15" customHeight="1">
       <c r="A157" s="1" t="inlineStr"/>
       <c r="B157" s="1" t="inlineStr"/>
       <c r="C157" s="1" t="inlineStr"/>
@@ -14132,7 +14200,7 @@
       <c r="AZ157" s="1" t="inlineStr"/>
       <c r="BA157" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="158">
+    <row r="158" ht="15" customHeight="1">
       <c r="A158" s="1" t="inlineStr"/>
       <c r="B158" s="1" t="inlineStr"/>
       <c r="C158" s="1" t="inlineStr"/>
@@ -14187,7 +14255,7 @@
       <c r="AZ158" s="1" t="inlineStr"/>
       <c r="BA158" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="159">
+    <row r="159" ht="15" customHeight="1">
       <c r="A159" s="1" t="inlineStr"/>
       <c r="B159" s="1" t="inlineStr"/>
       <c r="C159" s="1" t="inlineStr"/>
@@ -14242,7 +14310,7 @@
       <c r="AZ159" s="1" t="inlineStr"/>
       <c r="BA159" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="160">
+    <row r="160" ht="15" customHeight="1">
       <c r="A160" s="1" t="inlineStr"/>
       <c r="B160" s="1" t="inlineStr"/>
       <c r="C160" s="1" t="inlineStr"/>
@@ -14297,7 +14365,7 @@
       <c r="AZ160" s="1" t="inlineStr"/>
       <c r="BA160" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="161">
+    <row r="161" ht="15" customHeight="1">
       <c r="A161" s="1" t="inlineStr"/>
       <c r="B161" s="1" t="inlineStr"/>
       <c r="C161" s="1" t="inlineStr"/>
@@ -14352,7 +14420,7 @@
       <c r="AZ161" s="1" t="inlineStr"/>
       <c r="BA161" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="162">
+    <row r="162" ht="15" customHeight="1">
       <c r="A162" s="1" t="inlineStr"/>
       <c r="B162" s="1" t="inlineStr"/>
       <c r="C162" s="1" t="inlineStr"/>
@@ -14407,7 +14475,7 @@
       <c r="AZ162" s="1" t="inlineStr"/>
       <c r="BA162" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="163">
+    <row r="163" ht="15" customHeight="1">
       <c r="A163" s="1" t="inlineStr"/>
       <c r="B163" s="1" t="inlineStr"/>
       <c r="C163" s="1" t="inlineStr"/>
@@ -14462,7 +14530,7 @@
       <c r="AZ163" s="1" t="inlineStr"/>
       <c r="BA163" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="164">
+    <row r="164" ht="15" customHeight="1">
       <c r="A164" s="1" t="inlineStr"/>
       <c r="B164" s="1" t="inlineStr"/>
       <c r="C164" s="1" t="inlineStr"/>
@@ -14517,7 +14585,7 @@
       <c r="AZ164" s="1" t="inlineStr"/>
       <c r="BA164" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="165">
+    <row r="165" ht="15" customHeight="1">
       <c r="A165" s="1" t="inlineStr"/>
       <c r="B165" s="1" t="inlineStr"/>
       <c r="C165" s="1" t="inlineStr"/>
@@ -14572,7 +14640,7 @@
       <c r="AZ165" s="1" t="inlineStr"/>
       <c r="BA165" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="166">
+    <row r="166" ht="15" customHeight="1">
       <c r="A166" s="1" t="inlineStr"/>
       <c r="B166" s="1" t="inlineStr"/>
       <c r="C166" s="1" t="inlineStr"/>
@@ -14627,7 +14695,7 @@
       <c r="AZ166" s="1" t="inlineStr"/>
       <c r="BA166" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="167">
+    <row r="167" ht="15" customHeight="1">
       <c r="A167" s="1" t="inlineStr"/>
       <c r="B167" s="1" t="inlineStr"/>
       <c r="C167" s="1" t="inlineStr"/>
@@ -14682,7 +14750,7 @@
       <c r="AZ167" s="1" t="inlineStr"/>
       <c r="BA167" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="168">
+    <row r="168" ht="15" customHeight="1">
       <c r="A168" s="1" t="inlineStr"/>
       <c r="B168" s="1" t="inlineStr"/>
       <c r="C168" s="1" t="inlineStr"/>
@@ -14737,7 +14805,7 @@
       <c r="AZ168" s="1" t="inlineStr"/>
       <c r="BA168" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="169">
+    <row r="169" ht="15" customHeight="1">
       <c r="A169" s="1" t="inlineStr"/>
       <c r="B169" s="1" t="inlineStr"/>
       <c r="C169" s="1" t="inlineStr"/>
@@ -14792,7 +14860,7 @@
       <c r="AZ169" s="1" t="inlineStr"/>
       <c r="BA169" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="170">
+    <row r="170" ht="15" customHeight="1">
       <c r="A170" s="1" t="inlineStr"/>
       <c r="B170" s="1" t="inlineStr"/>
       <c r="C170" s="1" t="inlineStr"/>
@@ -14847,7 +14915,7 @@
       <c r="AZ170" s="1" t="inlineStr"/>
       <c r="BA170" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="171">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" s="1" t="inlineStr"/>
       <c r="B171" s="1" t="inlineStr"/>
       <c r="C171" s="1" t="inlineStr"/>
@@ -14902,7 +14970,7 @@
       <c r="AZ171" s="1" t="inlineStr"/>
       <c r="BA171" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="172">
+    <row r="172" ht="15" customHeight="1">
       <c r="A172" s="1" t="inlineStr"/>
       <c r="B172" s="1" t="inlineStr"/>
       <c r="C172" s="1" t="inlineStr"/>
@@ -14957,7 +15025,7 @@
       <c r="AZ172" s="1" t="inlineStr"/>
       <c r="BA172" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="173">
+    <row r="173" ht="15" customHeight="1">
       <c r="A173" s="1" t="inlineStr"/>
       <c r="B173" s="1" t="inlineStr"/>
       <c r="C173" s="1" t="inlineStr"/>
@@ -15012,7 +15080,7 @@
       <c r="AZ173" s="1" t="inlineStr"/>
       <c r="BA173" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="174">
+    <row r="174" ht="15" customHeight="1">
       <c r="A174" s="1" t="inlineStr"/>
       <c r="B174" s="1" t="inlineStr"/>
       <c r="C174" s="1" t="inlineStr"/>
@@ -15067,7 +15135,7 @@
       <c r="AZ174" s="1" t="inlineStr"/>
       <c r="BA174" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="175">
+    <row r="175" ht="15" customHeight="1">
       <c r="A175" s="1" t="inlineStr"/>
       <c r="B175" s="1" t="inlineStr"/>
       <c r="C175" s="1" t="inlineStr"/>
@@ -15122,7 +15190,7 @@
       <c r="AZ175" s="1" t="inlineStr"/>
       <c r="BA175" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="176">
+    <row r="176" ht="15" customHeight="1">
       <c r="A176" s="1" t="inlineStr"/>
       <c r="B176" s="1" t="inlineStr"/>
       <c r="C176" s="1" t="inlineStr"/>
@@ -15177,7 +15245,7 @@
       <c r="AZ176" s="1" t="inlineStr"/>
       <c r="BA176" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="177">
+    <row r="177" ht="15" customHeight="1">
       <c r="A177" s="1" t="inlineStr"/>
       <c r="B177" s="1" t="inlineStr"/>
       <c r="C177" s="1" t="inlineStr"/>
@@ -15232,7 +15300,7 @@
       <c r="AZ177" s="1" t="inlineStr"/>
       <c r="BA177" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="178">
+    <row r="178" ht="15" customHeight="1">
       <c r="A178" s="1" t="inlineStr"/>
       <c r="B178" s="1" t="inlineStr"/>
       <c r="C178" s="1" t="inlineStr"/>
@@ -15287,7 +15355,7 @@
       <c r="AZ178" s="1" t="inlineStr"/>
       <c r="BA178" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="179">
+    <row r="179" ht="15" customHeight="1">
       <c r="A179" s="1" t="inlineStr"/>
       <c r="B179" s="1" t="inlineStr"/>
       <c r="C179" s="1" t="inlineStr"/>
@@ -15342,7 +15410,7 @@
       <c r="AZ179" s="1" t="inlineStr"/>
       <c r="BA179" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="180">
+    <row r="180" ht="15" customHeight="1">
       <c r="A180" s="1" t="inlineStr"/>
       <c r="B180" s="1" t="inlineStr"/>
       <c r="C180" s="1" t="inlineStr"/>
@@ -15397,7 +15465,7 @@
       <c r="AZ180" s="1" t="inlineStr"/>
       <c r="BA180" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="181">
+    <row r="181" ht="15" customHeight="1">
       <c r="A181" s="1" t="inlineStr"/>
       <c r="B181" s="1" t="inlineStr"/>
       <c r="C181" s="1" t="inlineStr"/>
@@ -15452,7 +15520,7 @@
       <c r="AZ181" s="1" t="inlineStr"/>
       <c r="BA181" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="182">
+    <row r="182" ht="15" customHeight="1">
       <c r="A182" s="1" t="inlineStr"/>
       <c r="B182" s="1" t="inlineStr"/>
       <c r="C182" s="1" t="inlineStr"/>
@@ -15507,7 +15575,7 @@
       <c r="AZ182" s="1" t="inlineStr"/>
       <c r="BA182" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="183">
+    <row r="183" ht="15" customHeight="1">
       <c r="A183" s="1" t="inlineStr"/>
       <c r="B183" s="1" t="inlineStr"/>
       <c r="C183" s="1" t="inlineStr"/>
@@ -15562,7 +15630,7 @@
       <c r="AZ183" s="1" t="inlineStr"/>
       <c r="BA183" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="184">
+    <row r="184" ht="15" customHeight="1">
       <c r="A184" s="1" t="inlineStr"/>
       <c r="B184" s="1" t="inlineStr"/>
       <c r="C184" s="1" t="inlineStr"/>
@@ -15617,7 +15685,7 @@
       <c r="AZ184" s="1" t="inlineStr"/>
       <c r="BA184" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="185">
+    <row r="185" ht="15" customHeight="1">
       <c r="A185" s="1" t="inlineStr"/>
       <c r="B185" s="1" t="inlineStr"/>
       <c r="C185" s="1" t="inlineStr"/>
@@ -15672,7 +15740,7 @@
       <c r="AZ185" s="1" t="inlineStr"/>
       <c r="BA185" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="186">
+    <row r="186" ht="15" customHeight="1">
       <c r="A186" s="1" t="inlineStr"/>
       <c r="B186" s="1" t="inlineStr"/>
       <c r="C186" s="1" t="inlineStr"/>
@@ -15727,7 +15795,7 @@
       <c r="AZ186" s="1" t="inlineStr"/>
       <c r="BA186" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="187">
+    <row r="187" ht="15" customHeight="1">
       <c r="A187" s="1" t="inlineStr"/>
       <c r="B187" s="1" t="inlineStr"/>
       <c r="C187" s="1" t="inlineStr"/>
@@ -15782,7 +15850,7 @@
       <c r="AZ187" s="1" t="inlineStr"/>
       <c r="BA187" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="188">
+    <row r="188" ht="15" customHeight="1">
       <c r="A188" s="1" t="inlineStr"/>
       <c r="B188" s="1" t="inlineStr"/>
       <c r="C188" s="1" t="inlineStr"/>
@@ -15837,7 +15905,7 @@
       <c r="AZ188" s="1" t="inlineStr"/>
       <c r="BA188" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="189">
+    <row r="189" ht="15" customHeight="1">
       <c r="A189" s="1" t="inlineStr"/>
       <c r="B189" s="1" t="inlineStr"/>
       <c r="C189" s="1" t="inlineStr"/>
@@ -15892,7 +15960,7 @@
       <c r="AZ189" s="1" t="inlineStr"/>
       <c r="BA189" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="190">
+    <row r="190" ht="15" customHeight="1">
       <c r="A190" s="1" t="inlineStr"/>
       <c r="B190" s="1" t="inlineStr"/>
       <c r="C190" s="1" t="inlineStr"/>
@@ -15947,7 +16015,7 @@
       <c r="AZ190" s="1" t="inlineStr"/>
       <c r="BA190" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="191">
+    <row r="191" ht="15" customHeight="1">
       <c r="A191" s="1" t="inlineStr"/>
       <c r="B191" s="1" t="inlineStr"/>
       <c r="C191" s="1" t="inlineStr"/>
@@ -16002,7 +16070,7 @@
       <c r="AZ191" s="1" t="inlineStr"/>
       <c r="BA191" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="192">
+    <row r="192" ht="15" customHeight="1">
       <c r="A192" s="1" t="inlineStr"/>
       <c r="B192" s="1" t="inlineStr"/>
       <c r="C192" s="1" t="inlineStr"/>
@@ -16057,7 +16125,7 @@
       <c r="AZ192" s="1" t="inlineStr"/>
       <c r="BA192" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="193">
+    <row r="193" ht="15" customHeight="1">
       <c r="A193" s="1" t="inlineStr"/>
       <c r="B193" s="1" t="inlineStr"/>
       <c r="C193" s="1" t="inlineStr"/>
@@ -16112,7 +16180,7 @@
       <c r="AZ193" s="1" t="inlineStr"/>
       <c r="BA193" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="194">
+    <row r="194" ht="15" customHeight="1">
       <c r="A194" s="1" t="inlineStr"/>
       <c r="B194" s="1" t="inlineStr"/>
       <c r="C194" s="1" t="inlineStr"/>
@@ -16167,7 +16235,7 @@
       <c r="AZ194" s="1" t="inlineStr"/>
       <c r="BA194" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="195">
+    <row r="195" ht="15" customHeight="1">
       <c r="A195" s="1" t="inlineStr"/>
       <c r="B195" s="1" t="inlineStr"/>
       <c r="C195" s="1" t="inlineStr"/>
@@ -16222,7 +16290,7 @@
       <c r="AZ195" s="1" t="inlineStr"/>
       <c r="BA195" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="196">
+    <row r="196" ht="15" customHeight="1">
       <c r="A196" s="1" t="inlineStr"/>
       <c r="B196" s="1" t="inlineStr"/>
       <c r="C196" s="1" t="inlineStr"/>
@@ -16277,7 +16345,7 @@
       <c r="AZ196" s="1" t="inlineStr"/>
       <c r="BA196" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="197">
+    <row r="197" ht="15" customHeight="1">
       <c r="A197" s="1" t="inlineStr"/>
       <c r="B197" s="1" t="inlineStr"/>
       <c r="C197" s="1" t="inlineStr"/>
@@ -16332,7 +16400,7 @@
       <c r="AZ197" s="1" t="inlineStr"/>
       <c r="BA197" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="198">
+    <row r="198" ht="15" customHeight="1">
       <c r="A198" s="1" t="inlineStr"/>
       <c r="B198" s="1" t="inlineStr"/>
       <c r="C198" s="1" t="inlineStr"/>
@@ -16387,7 +16455,7 @@
       <c r="AZ198" s="1" t="inlineStr"/>
       <c r="BA198" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="199">
+    <row r="199" ht="15" customHeight="1">
       <c r="A199" s="1" t="inlineStr"/>
       <c r="B199" s="1" t="inlineStr"/>
       <c r="C199" s="1" t="inlineStr"/>
@@ -16442,7 +16510,7 @@
       <c r="AZ199" s="1" t="inlineStr"/>
       <c r="BA199" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="200">
+    <row r="200" ht="15" customHeight="1">
       <c r="A200" s="1" t="inlineStr"/>
       <c r="B200" s="1" t="inlineStr"/>
       <c r="C200" s="1" t="inlineStr"/>
@@ -16497,7 +16565,7 @@
       <c r="AZ200" s="1" t="inlineStr"/>
       <c r="BA200" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="201">
+    <row r="201" ht="15" customHeight="1">
       <c r="A201" s="1" t="inlineStr"/>
       <c r="B201" s="1" t="inlineStr"/>
       <c r="C201" s="1" t="inlineStr"/>
@@ -16552,7 +16620,7 @@
       <c r="AZ201" s="1" t="inlineStr"/>
       <c r="BA201" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="202">
+    <row r="202" ht="15" customHeight="1">
       <c r="A202" s="1" t="inlineStr"/>
       <c r="B202" s="1" t="inlineStr"/>
       <c r="C202" s="1" t="inlineStr"/>
@@ -16607,7 +16675,7 @@
       <c r="AZ202" s="1" t="inlineStr"/>
       <c r="BA202" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="203">
+    <row r="203" ht="15" customHeight="1">
       <c r="A203" s="1" t="inlineStr"/>
       <c r="B203" s="1" t="inlineStr"/>
       <c r="C203" s="1" t="inlineStr"/>
@@ -16662,7 +16730,7 @@
       <c r="AZ203" s="1" t="inlineStr"/>
       <c r="BA203" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="204">
+    <row r="204" ht="15" customHeight="1">
       <c r="A204" s="1" t="inlineStr"/>
       <c r="B204" s="1" t="inlineStr"/>
       <c r="C204" s="1" t="inlineStr"/>
@@ -16717,7 +16785,7 @@
       <c r="AZ204" s="1" t="inlineStr"/>
       <c r="BA204" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="205">
+    <row r="205" ht="15" customHeight="1">
       <c r="A205" s="1" t="inlineStr"/>
       <c r="B205" s="1" t="inlineStr"/>
       <c r="C205" s="1" t="inlineStr"/>
@@ -16772,7 +16840,7 @@
       <c r="AZ205" s="1" t="inlineStr"/>
       <c r="BA205" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="206">
+    <row r="206" ht="15" customHeight="1">
       <c r="A206" s="1" t="inlineStr"/>
       <c r="B206" s="1" t="inlineStr"/>
       <c r="C206" s="1" t="inlineStr"/>
@@ -16827,7 +16895,7 @@
       <c r="AZ206" s="1" t="inlineStr"/>
       <c r="BA206" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="207">
+    <row r="207" ht="15" customHeight="1">
       <c r="A207" s="1" t="inlineStr"/>
       <c r="B207" s="1" t="inlineStr"/>
       <c r="C207" s="1" t="inlineStr"/>
@@ -16882,7 +16950,7 @@
       <c r="AZ207" s="1" t="inlineStr"/>
       <c r="BA207" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="208">
+    <row r="208" ht="15" customHeight="1">
       <c r="A208" s="1" t="inlineStr"/>
       <c r="B208" s="1" t="inlineStr"/>
       <c r="C208" s="1" t="inlineStr"/>
@@ -16937,7 +17005,7 @@
       <c r="AZ208" s="1" t="inlineStr"/>
       <c r="BA208" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="209">
+    <row r="209" ht="15" customHeight="1">
       <c r="A209" s="1" t="inlineStr"/>
       <c r="B209" s="1" t="inlineStr"/>
       <c r="C209" s="1" t="inlineStr"/>
@@ -16992,7 +17060,7 @@
       <c r="AZ209" s="1" t="inlineStr"/>
       <c r="BA209" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="210">
+    <row r="210" ht="15" customHeight="1">
       <c r="A210" s="1" t="inlineStr"/>
       <c r="B210" s="1" t="inlineStr"/>
       <c r="C210" s="1" t="inlineStr"/>
@@ -17047,7 +17115,7 @@
       <c r="AZ210" s="1" t="inlineStr"/>
       <c r="BA210" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="211">
+    <row r="211" ht="15" customHeight="1">
       <c r="A211" s="1" t="inlineStr"/>
       <c r="B211" s="1" t="inlineStr"/>
       <c r="C211" s="1" t="inlineStr"/>
@@ -17102,7 +17170,7 @@
       <c r="AZ211" s="1" t="inlineStr"/>
       <c r="BA211" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="212">
+    <row r="212" ht="15" customHeight="1">
       <c r="A212" s="1" t="inlineStr"/>
       <c r="B212" s="1" t="inlineStr"/>
       <c r="C212" s="1" t="inlineStr"/>
@@ -17157,7 +17225,7 @@
       <c r="AZ212" s="1" t="inlineStr"/>
       <c r="BA212" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="213">
+    <row r="213" ht="15" customHeight="1">
       <c r="A213" s="1" t="inlineStr"/>
       <c r="B213" s="1" t="inlineStr"/>
       <c r="C213" s="1" t="inlineStr"/>
@@ -17212,7 +17280,7 @@
       <c r="AZ213" s="1" t="inlineStr"/>
       <c r="BA213" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="214">
+    <row r="214" ht="15" customHeight="1">
       <c r="A214" s="1" t="inlineStr"/>
       <c r="B214" s="1" t="inlineStr"/>
       <c r="C214" s="1" t="inlineStr"/>
@@ -17267,7 +17335,7 @@
       <c r="AZ214" s="1" t="inlineStr"/>
       <c r="BA214" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="215">
+    <row r="215" ht="15" customHeight="1">
       <c r="A215" s="1" t="inlineStr"/>
       <c r="B215" s="1" t="inlineStr"/>
       <c r="C215" s="1" t="inlineStr"/>
@@ -17322,7 +17390,7 @@
       <c r="AZ215" s="1" t="inlineStr"/>
       <c r="BA215" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="216">
+    <row r="216" ht="15" customHeight="1">
       <c r="A216" s="1" t="inlineStr"/>
       <c r="B216" s="1" t="inlineStr"/>
       <c r="C216" s="1" t="inlineStr"/>
@@ -17377,7 +17445,7 @@
       <c r="AZ216" s="1" t="inlineStr"/>
       <c r="BA216" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="217">
+    <row r="217" ht="15" customHeight="1">
       <c r="A217" s="1" t="inlineStr"/>
       <c r="B217" s="1" t="inlineStr"/>
       <c r="C217" s="1" t="inlineStr"/>
@@ -17432,7 +17500,7 @@
       <c r="AZ217" s="1" t="inlineStr"/>
       <c r="BA217" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="218">
+    <row r="218" ht="15" customHeight="1">
       <c r="A218" s="1" t="inlineStr"/>
       <c r="B218" s="1" t="inlineStr"/>
       <c r="C218" s="1" t="inlineStr"/>
@@ -17487,7 +17555,7 @@
       <c r="AZ218" s="1" t="inlineStr"/>
       <c r="BA218" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="219">
+    <row r="219" ht="15" customHeight="1">
       <c r="A219" s="1" t="inlineStr"/>
       <c r="B219" s="1" t="inlineStr"/>
       <c r="C219" s="1" t="inlineStr"/>
@@ -17542,7 +17610,7 @@
       <c r="AZ219" s="1" t="inlineStr"/>
       <c r="BA219" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="220">
+    <row r="220" ht="15" customHeight="1">
       <c r="A220" s="1" t="inlineStr"/>
       <c r="B220" s="1" t="inlineStr"/>
       <c r="C220" s="1" t="inlineStr"/>
@@ -17597,7 +17665,7 @@
       <c r="AZ220" s="1" t="inlineStr"/>
       <c r="BA220" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="221">
+    <row r="221" ht="15" customHeight="1">
       <c r="A221" s="1" t="inlineStr"/>
       <c r="B221" s="1" t="inlineStr"/>
       <c r="C221" s="1" t="inlineStr"/>
@@ -17652,7 +17720,7 @@
       <c r="AZ221" s="1" t="inlineStr"/>
       <c r="BA221" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="222">
+    <row r="222" ht="15" customHeight="1">
       <c r="A222" s="1" t="inlineStr"/>
       <c r="B222" s="1" t="inlineStr"/>
       <c r="C222" s="1" t="inlineStr"/>
@@ -17707,7 +17775,7 @@
       <c r="AZ222" s="1" t="inlineStr"/>
       <c r="BA222" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="223">
+    <row r="223" ht="15" customHeight="1">
       <c r="A223" s="1" t="inlineStr"/>
       <c r="B223" s="1" t="inlineStr"/>
       <c r="C223" s="1" t="inlineStr"/>
@@ -17762,7 +17830,7 @@
       <c r="AZ223" s="1" t="inlineStr"/>
       <c r="BA223" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="224">
+    <row r="224" ht="15" customHeight="1">
       <c r="A224" s="1" t="inlineStr"/>
       <c r="B224" s="1" t="inlineStr"/>
       <c r="C224" s="1" t="inlineStr"/>
@@ -17817,7 +17885,7 @@
       <c r="AZ224" s="1" t="inlineStr"/>
       <c r="BA224" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="225">
+    <row r="225" ht="15" customHeight="1">
       <c r="A225" s="1" t="inlineStr"/>
       <c r="B225" s="1" t="inlineStr"/>
       <c r="C225" s="1" t="inlineStr"/>
@@ -17872,7 +17940,7 @@
       <c r="AZ225" s="1" t="inlineStr"/>
       <c r="BA225" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="226">
+    <row r="226" ht="15" customHeight="1">
       <c r="A226" s="1" t="inlineStr"/>
       <c r="B226" s="1" t="inlineStr"/>
       <c r="C226" s="1" t="inlineStr"/>
@@ -17927,7 +17995,7 @@
       <c r="AZ226" s="1" t="inlineStr"/>
       <c r="BA226" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="227">
+    <row r="227" ht="15" customHeight="1">
       <c r="A227" s="1" t="inlineStr"/>
       <c r="B227" s="1" t="inlineStr"/>
       <c r="C227" s="1" t="inlineStr"/>
@@ -17982,7 +18050,7 @@
       <c r="AZ227" s="1" t="inlineStr"/>
       <c r="BA227" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="228">
+    <row r="228" ht="15" customHeight="1">
       <c r="A228" s="1" t="inlineStr"/>
       <c r="B228" s="1" t="inlineStr"/>
       <c r="C228" s="1" t="inlineStr"/>
@@ -18037,7 +18105,7 @@
       <c r="AZ228" s="1" t="inlineStr"/>
       <c r="BA228" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="229">
+    <row r="229" ht="15" customHeight="1">
       <c r="A229" s="1" t="inlineStr"/>
       <c r="B229" s="1" t="inlineStr"/>
       <c r="C229" s="1" t="inlineStr"/>
@@ -18092,7 +18160,7 @@
       <c r="AZ229" s="1" t="inlineStr"/>
       <c r="BA229" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="230">
+    <row r="230" ht="15" customHeight="1">
       <c r="A230" s="1" t="inlineStr"/>
       <c r="B230" s="1" t="inlineStr"/>
       <c r="C230" s="1" t="inlineStr"/>
@@ -18147,7 +18215,7 @@
       <c r="AZ230" s="1" t="inlineStr"/>
       <c r="BA230" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="231">
+    <row r="231" ht="15" customHeight="1">
       <c r="A231" s="1" t="inlineStr"/>
       <c r="B231" s="1" t="inlineStr"/>
       <c r="C231" s="1" t="inlineStr"/>
@@ -18202,7 +18270,7 @@
       <c r="AZ231" s="1" t="inlineStr"/>
       <c r="BA231" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="232">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" s="1" t="inlineStr"/>
       <c r="B232" s="1" t="inlineStr"/>
       <c r="C232" s="1" t="inlineStr"/>
@@ -18257,7 +18325,7 @@
       <c r="AZ232" s="1" t="inlineStr"/>
       <c r="BA232" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="233">
+    <row r="233" ht="15" customHeight="1">
       <c r="A233" s="1" t="inlineStr"/>
       <c r="B233" s="1" t="inlineStr"/>
       <c r="C233" s="1" t="inlineStr"/>
@@ -18312,7 +18380,7 @@
       <c r="AZ233" s="1" t="inlineStr"/>
       <c r="BA233" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="234">
+    <row r="234" ht="15" customHeight="1">
       <c r="A234" s="1" t="inlineStr"/>
       <c r="B234" s="1" t="inlineStr"/>
       <c r="C234" s="1" t="inlineStr"/>
@@ -18367,7 +18435,7 @@
       <c r="AZ234" s="1" t="inlineStr"/>
       <c r="BA234" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="235">
+    <row r="235" ht="15" customHeight="1">
       <c r="A235" s="1" t="inlineStr"/>
       <c r="B235" s="1" t="inlineStr"/>
       <c r="C235" s="1" t="inlineStr"/>
@@ -18422,7 +18490,7 @@
       <c r="AZ235" s="1" t="inlineStr"/>
       <c r="BA235" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="236">
+    <row r="236" ht="15" customHeight="1">
       <c r="A236" s="1" t="inlineStr"/>
       <c r="B236" s="1" t="inlineStr"/>
       <c r="C236" s="1" t="inlineStr"/>
@@ -18477,7 +18545,7 @@
       <c r="AZ236" s="1" t="inlineStr"/>
       <c r="BA236" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="237">
+    <row r="237" ht="15" customHeight="1">
       <c r="A237" s="1" t="inlineStr"/>
       <c r="B237" s="1" t="inlineStr"/>
       <c r="C237" s="1" t="inlineStr"/>
@@ -18532,7 +18600,7 @@
       <c r="AZ237" s="1" t="inlineStr"/>
       <c r="BA237" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="238">
+    <row r="238" ht="15" customHeight="1">
       <c r="A238" s="1" t="inlineStr"/>
       <c r="B238" s="1" t="inlineStr"/>
       <c r="C238" s="1" t="inlineStr"/>
@@ -18587,7 +18655,7 @@
       <c r="AZ238" s="1" t="inlineStr"/>
       <c r="BA238" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="239">
+    <row r="239" ht="15" customHeight="1">
       <c r="A239" s="1" t="inlineStr"/>
       <c r="B239" s="1" t="inlineStr"/>
       <c r="C239" s="1" t="inlineStr"/>
@@ -18642,7 +18710,7 @@
       <c r="AZ239" s="1" t="inlineStr"/>
       <c r="BA239" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="240">
+    <row r="240" ht="15" customHeight="1">
       <c r="A240" s="1" t="inlineStr"/>
       <c r="B240" s="1" t="inlineStr"/>
       <c r="C240" s="1" t="inlineStr"/>
@@ -18697,7 +18765,7 @@
       <c r="AZ240" s="1" t="inlineStr"/>
       <c r="BA240" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="241">
+    <row r="241" ht="15" customHeight="1">
       <c r="A241" s="1" t="inlineStr"/>
       <c r="B241" s="1" t="inlineStr"/>
       <c r="C241" s="1" t="inlineStr"/>
@@ -18752,7 +18820,7 @@
       <c r="AZ241" s="1" t="inlineStr"/>
       <c r="BA241" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="242">
+    <row r="242" ht="15" customHeight="1">
       <c r="A242" s="1" t="inlineStr"/>
       <c r="B242" s="1" t="inlineStr"/>
       <c r="C242" s="1" t="inlineStr"/>
@@ -18807,7 +18875,7 @@
       <c r="AZ242" s="1" t="inlineStr"/>
       <c r="BA242" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="243">
+    <row r="243" ht="15" customHeight="1">
       <c r="A243" s="1" t="inlineStr"/>
       <c r="B243" s="1" t="inlineStr"/>
       <c r="C243" s="1" t="inlineStr"/>
@@ -18862,7 +18930,7 @@
       <c r="AZ243" s="1" t="inlineStr"/>
       <c r="BA243" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="244">
+    <row r="244" ht="15" customHeight="1">
       <c r="A244" s="1" t="inlineStr"/>
       <c r="B244" s="1" t="inlineStr"/>
       <c r="C244" s="1" t="inlineStr"/>
@@ -18917,7 +18985,7 @@
       <c r="AZ244" s="1" t="inlineStr"/>
       <c r="BA244" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="245">
+    <row r="245" ht="15" customHeight="1">
       <c r="A245" s="1" t="inlineStr"/>
       <c r="B245" s="1" t="inlineStr"/>
       <c r="C245" s="1" t="inlineStr"/>
@@ -18972,7 +19040,7 @@
       <c r="AZ245" s="1" t="inlineStr"/>
       <c r="BA245" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="246">
+    <row r="246" ht="15" customHeight="1">
       <c r="A246" s="1" t="inlineStr"/>
       <c r="B246" s="1" t="inlineStr"/>
       <c r="C246" s="1" t="inlineStr"/>
@@ -19027,7 +19095,7 @@
       <c r="AZ246" s="1" t="inlineStr"/>
       <c r="BA246" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="247">
+    <row r="247" ht="15" customHeight="1">
       <c r="A247" s="1" t="inlineStr"/>
       <c r="B247" s="1" t="inlineStr"/>
       <c r="C247" s="1" t="inlineStr"/>
@@ -19082,7 +19150,7 @@
       <c r="AZ247" s="1" t="inlineStr"/>
       <c r="BA247" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="248">
+    <row r="248" ht="15" customHeight="1">
       <c r="A248" s="1" t="inlineStr"/>
       <c r="B248" s="1" t="inlineStr"/>
       <c r="C248" s="1" t="inlineStr"/>
@@ -19137,7 +19205,7 @@
       <c r="AZ248" s="1" t="inlineStr"/>
       <c r="BA248" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="249">
+    <row r="249" ht="15" customHeight="1">
       <c r="A249" s="1" t="inlineStr"/>
       <c r="B249" s="1" t="inlineStr"/>
       <c r="C249" s="1" t="inlineStr"/>
@@ -19192,7 +19260,7 @@
       <c r="AZ249" s="1" t="inlineStr"/>
       <c r="BA249" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="250">
+    <row r="250" ht="15" customHeight="1">
       <c r="A250" s="1" t="inlineStr"/>
       <c r="B250" s="1" t="inlineStr"/>
       <c r="C250" s="1" t="inlineStr"/>
@@ -19247,7 +19315,7 @@
       <c r="AZ250" s="1" t="inlineStr"/>
       <c r="BA250" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="251">
+    <row r="251" ht="15" customHeight="1">
       <c r="A251" s="1" t="inlineStr"/>
       <c r="B251" s="1" t="inlineStr"/>
       <c r="C251" s="1" t="inlineStr"/>
@@ -19302,7 +19370,7 @@
       <c r="AZ251" s="1" t="inlineStr"/>
       <c r="BA251" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="252">
+    <row r="252" ht="15" customHeight="1">
       <c r="A252" s="1" t="inlineStr"/>
       <c r="B252" s="1" t="inlineStr"/>
       <c r="C252" s="1" t="inlineStr"/>
@@ -19357,7 +19425,7 @@
       <c r="AZ252" s="1" t="inlineStr"/>
       <c r="BA252" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="253">
+    <row r="253" ht="15" customHeight="1">
       <c r="A253" s="1" t="inlineStr"/>
       <c r="B253" s="1" t="inlineStr"/>
       <c r="C253" s="1" t="inlineStr"/>
@@ -19412,7 +19480,7 @@
       <c r="AZ253" s="1" t="inlineStr"/>
       <c r="BA253" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="254">
+    <row r="254" ht="15" customHeight="1">
       <c r="A254" s="1" t="inlineStr"/>
       <c r="B254" s="1" t="inlineStr"/>
       <c r="C254" s="1" t="inlineStr"/>
@@ -19467,7 +19535,7 @@
       <c r="AZ254" s="1" t="inlineStr"/>
       <c r="BA254" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="255">
+    <row r="255" ht="15" customHeight="1">
       <c r="A255" s="1" t="inlineStr"/>
       <c r="B255" s="1" t="inlineStr"/>
       <c r="C255" s="1" t="inlineStr"/>
@@ -19522,7 +19590,7 @@
       <c r="AZ255" s="1" t="inlineStr"/>
       <c r="BA255" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="256">
+    <row r="256" ht="15" customHeight="1">
       <c r="A256" s="1" t="inlineStr"/>
       <c r="B256" s="1" t="inlineStr"/>
       <c r="C256" s="1" t="inlineStr"/>
@@ -19577,7 +19645,7 @@
       <c r="AZ256" s="1" t="inlineStr"/>
       <c r="BA256" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="257">
+    <row r="257" ht="15" customHeight="1">
       <c r="A257" s="1" t="inlineStr"/>
       <c r="B257" s="1" t="inlineStr"/>
       <c r="C257" s="1" t="inlineStr"/>
@@ -19632,7 +19700,7 @@
       <c r="AZ257" s="1" t="inlineStr"/>
       <c r="BA257" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="258">
+    <row r="258" ht="15" customHeight="1">
       <c r="A258" s="1" t="inlineStr"/>
       <c r="B258" s="1" t="inlineStr"/>
       <c r="C258" s="1" t="inlineStr"/>
@@ -19687,7 +19755,7 @@
       <c r="AZ258" s="1" t="inlineStr"/>
       <c r="BA258" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="259">
+    <row r="259" ht="15" customHeight="1">
       <c r="A259" s="1" t="inlineStr"/>
       <c r="B259" s="1" t="inlineStr"/>
       <c r="C259" s="1" t="inlineStr"/>
@@ -19742,7 +19810,7 @@
       <c r="AZ259" s="1" t="inlineStr"/>
       <c r="BA259" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="260">
+    <row r="260" ht="15" customHeight="1">
       <c r="A260" s="1" t="inlineStr"/>
       <c r="B260" s="1" t="inlineStr"/>
       <c r="C260" s="1" t="inlineStr"/>
@@ -19797,7 +19865,7 @@
       <c r="AZ260" s="1" t="inlineStr"/>
       <c r="BA260" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="261">
+    <row r="261" ht="15" customHeight="1">
       <c r="A261" s="1" t="inlineStr"/>
       <c r="B261" s="1" t="inlineStr"/>
       <c r="C261" s="1" t="inlineStr"/>
@@ -19852,7 +19920,7 @@
       <c r="AZ261" s="1" t="inlineStr"/>
       <c r="BA261" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="262">
+    <row r="262" ht="15" customHeight="1">
       <c r="A262" s="1" t="inlineStr"/>
       <c r="B262" s="1" t="inlineStr"/>
       <c r="C262" s="1" t="inlineStr"/>
@@ -19907,7 +19975,7 @@
       <c r="AZ262" s="1" t="inlineStr"/>
       <c r="BA262" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="263">
+    <row r="263" ht="15" customHeight="1">
       <c r="A263" s="1" t="inlineStr"/>
       <c r="B263" s="1" t="inlineStr"/>
       <c r="C263" s="1" t="inlineStr"/>
@@ -19962,7 +20030,7 @@
       <c r="AZ263" s="1" t="inlineStr"/>
       <c r="BA263" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="264">
+    <row r="264" ht="15" customHeight="1">
       <c r="A264" s="1" t="inlineStr"/>
       <c r="B264" s="1" t="inlineStr"/>
       <c r="C264" s="1" t="inlineStr"/>
@@ -20017,7 +20085,7 @@
       <c r="AZ264" s="1" t="inlineStr"/>
       <c r="BA264" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="265">
+    <row r="265" ht="15" customHeight="1">
       <c r="A265" s="1" t="inlineStr"/>
       <c r="B265" s="1" t="inlineStr"/>
       <c r="C265" s="1" t="inlineStr"/>
@@ -20072,7 +20140,7 @@
       <c r="AZ265" s="1" t="inlineStr"/>
       <c r="BA265" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="266">
+    <row r="266" ht="15" customHeight="1">
       <c r="A266" s="1" t="inlineStr"/>
       <c r="B266" s="1" t="inlineStr"/>
       <c r="C266" s="1" t="inlineStr"/>
@@ -20127,7 +20195,7 @@
       <c r="AZ266" s="1" t="inlineStr"/>
       <c r="BA266" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="267">
+    <row r="267" ht="15" customHeight="1">
       <c r="A267" s="1" t="inlineStr"/>
       <c r="B267" s="1" t="inlineStr"/>
       <c r="C267" s="1" t="inlineStr"/>
@@ -20182,7 +20250,7 @@
       <c r="AZ267" s="1" t="inlineStr"/>
       <c r="BA267" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="268">
+    <row r="268" ht="15" customHeight="1">
       <c r="A268" s="1" t="inlineStr"/>
       <c r="B268" s="1" t="inlineStr"/>
       <c r="C268" s="1" t="inlineStr"/>
@@ -20237,7 +20305,7 @@
       <c r="AZ268" s="1" t="inlineStr"/>
       <c r="BA268" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="269">
+    <row r="269" ht="15" customHeight="1">
       <c r="A269" s="1" t="inlineStr"/>
       <c r="B269" s="1" t="inlineStr"/>
       <c r="C269" s="1" t="inlineStr"/>
@@ -20292,7 +20360,7 @@
       <c r="AZ269" s="1" t="inlineStr"/>
       <c r="BA269" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="270">
+    <row r="270" ht="15" customHeight="1">
       <c r="A270" s="1" t="inlineStr"/>
       <c r="B270" s="1" t="inlineStr"/>
       <c r="C270" s="1" t="inlineStr"/>
@@ -20347,7 +20415,7 @@
       <c r="AZ270" s="1" t="inlineStr"/>
       <c r="BA270" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="271">
+    <row r="271" ht="15" customHeight="1">
       <c r="A271" s="1" t="inlineStr"/>
       <c r="B271" s="1" t="inlineStr"/>
       <c r="C271" s="1" t="inlineStr"/>
@@ -20402,7 +20470,7 @@
       <c r="AZ271" s="1" t="inlineStr"/>
       <c r="BA271" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="272">
+    <row r="272" ht="15" customHeight="1">
       <c r="A272" s="1" t="inlineStr"/>
       <c r="B272" s="1" t="inlineStr"/>
       <c r="C272" s="1" t="inlineStr"/>
@@ -20457,7 +20525,7 @@
       <c r="AZ272" s="1" t="inlineStr"/>
       <c r="BA272" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="273">
+    <row r="273" ht="15" customHeight="1">
       <c r="A273" s="1" t="inlineStr"/>
       <c r="B273" s="1" t="inlineStr"/>
       <c r="C273" s="1" t="inlineStr"/>
@@ -20512,7 +20580,7 @@
       <c r="AZ273" s="1" t="inlineStr"/>
       <c r="BA273" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="274">
+    <row r="274" ht="15" customHeight="1">
       <c r="A274" s="1" t="inlineStr"/>
       <c r="B274" s="1" t="inlineStr"/>
       <c r="C274" s="1" t="inlineStr"/>
@@ -20567,7 +20635,7 @@
       <c r="AZ274" s="1" t="inlineStr"/>
       <c r="BA274" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="275">
+    <row r="275" ht="15" customHeight="1">
       <c r="A275" s="1" t="inlineStr"/>
       <c r="B275" s="1" t="inlineStr"/>
       <c r="C275" s="1" t="inlineStr"/>
@@ -20622,7 +20690,7 @@
       <c r="AZ275" s="1" t="inlineStr"/>
       <c r="BA275" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="276">
+    <row r="276" ht="15" customHeight="1">
       <c r="A276" s="1" t="inlineStr"/>
       <c r="B276" s="1" t="inlineStr"/>
       <c r="C276" s="1" t="inlineStr"/>
@@ -20677,7 +20745,7 @@
       <c r="AZ276" s="1" t="inlineStr"/>
       <c r="BA276" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="277">
+    <row r="277" ht="15" customHeight="1">
       <c r="A277" s="1" t="inlineStr"/>
       <c r="B277" s="1" t="inlineStr"/>
       <c r="C277" s="1" t="inlineStr"/>
@@ -20732,7 +20800,7 @@
       <c r="AZ277" s="1" t="inlineStr"/>
       <c r="BA277" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="278">
+    <row r="278" ht="15" customHeight="1">
       <c r="A278" s="1" t="inlineStr"/>
       <c r="B278" s="1" t="inlineStr"/>
       <c r="C278" s="1" t="inlineStr"/>
@@ -20787,7 +20855,7 @@
       <c r="AZ278" s="1" t="inlineStr"/>
       <c r="BA278" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="279">
+    <row r="279" ht="15" customHeight="1">
       <c r="A279" s="1" t="inlineStr"/>
       <c r="B279" s="1" t="inlineStr"/>
       <c r="C279" s="1" t="inlineStr"/>
@@ -20842,7 +20910,7 @@
       <c r="AZ279" s="1" t="inlineStr"/>
       <c r="BA279" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="280">
+    <row r="280" ht="15" customHeight="1">
       <c r="A280" s="1" t="inlineStr"/>
       <c r="B280" s="1" t="inlineStr"/>
       <c r="C280" s="1" t="inlineStr"/>
@@ -20897,7 +20965,7 @@
       <c r="AZ280" s="1" t="inlineStr"/>
       <c r="BA280" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="281">
+    <row r="281" ht="15" customHeight="1">
       <c r="A281" s="1" t="inlineStr"/>
       <c r="B281" s="1" t="inlineStr"/>
       <c r="C281" s="1" t="inlineStr"/>
@@ -20952,7 +21020,7 @@
       <c r="AZ281" s="1" t="inlineStr"/>
       <c r="BA281" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="282">
+    <row r="282" ht="15" customHeight="1">
       <c r="A282" s="1" t="inlineStr"/>
       <c r="B282" s="1" t="inlineStr"/>
       <c r="C282" s="1" t="inlineStr"/>
@@ -21007,7 +21075,7 @@
       <c r="AZ282" s="1" t="inlineStr"/>
       <c r="BA282" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="283">
+    <row r="283" ht="15" customHeight="1">
       <c r="A283" s="1" t="inlineStr"/>
       <c r="B283" s="1" t="inlineStr"/>
       <c r="C283" s="1" t="inlineStr"/>
@@ -21062,7 +21130,7 @@
       <c r="AZ283" s="1" t="inlineStr"/>
       <c r="BA283" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="284">
+    <row r="284" ht="15" customHeight="1">
       <c r="A284" s="1" t="inlineStr"/>
       <c r="B284" s="1" t="inlineStr"/>
       <c r="C284" s="1" t="inlineStr"/>
@@ -21117,7 +21185,7 @@
       <c r="AZ284" s="1" t="inlineStr"/>
       <c r="BA284" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="285">
+    <row r="285" ht="15" customHeight="1">
       <c r="A285" s="1" t="inlineStr"/>
       <c r="B285" s="1" t="inlineStr"/>
       <c r="C285" s="1" t="inlineStr"/>
@@ -21172,7 +21240,7 @@
       <c r="AZ285" s="1" t="inlineStr"/>
       <c r="BA285" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="286">
+    <row r="286" ht="15" customHeight="1">
       <c r="A286" s="1" t="inlineStr"/>
       <c r="B286" s="1" t="inlineStr"/>
       <c r="C286" s="1" t="inlineStr"/>
@@ -21227,7 +21295,7 @@
       <c r="AZ286" s="1" t="inlineStr"/>
       <c r="BA286" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="287">
+    <row r="287" ht="15" customHeight="1">
       <c r="A287" s="1" t="inlineStr"/>
       <c r="B287" s="1" t="inlineStr"/>
       <c r="C287" s="1" t="inlineStr"/>
@@ -21282,7 +21350,7 @@
       <c r="AZ287" s="1" t="inlineStr"/>
       <c r="BA287" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="288">
+    <row r="288" ht="15" customHeight="1">
       <c r="A288" s="1" t="inlineStr"/>
       <c r="B288" s="1" t="inlineStr"/>
       <c r="C288" s="1" t="inlineStr"/>
@@ -21337,7 +21405,7 @@
       <c r="AZ288" s="1" t="inlineStr"/>
       <c r="BA288" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="289">
+    <row r="289" ht="15" customHeight="1">
       <c r="A289" s="1" t="inlineStr"/>
       <c r="B289" s="1" t="inlineStr"/>
       <c r="C289" s="1" t="inlineStr"/>
@@ -21392,7 +21460,7 @@
       <c r="AZ289" s="1" t="inlineStr"/>
       <c r="BA289" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="290">
+    <row r="290" ht="15" customHeight="1">
       <c r="A290" s="1" t="inlineStr"/>
       <c r="B290" s="1" t="inlineStr"/>
       <c r="C290" s="1" t="inlineStr"/>
@@ -21447,7 +21515,7 @@
       <c r="AZ290" s="1" t="inlineStr"/>
       <c r="BA290" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="291">
+    <row r="291" ht="15" customHeight="1">
       <c r="A291" s="1" t="inlineStr"/>
       <c r="B291" s="1" t="inlineStr"/>
       <c r="C291" s="1" t="inlineStr"/>
@@ -21502,7 +21570,7 @@
       <c r="AZ291" s="1" t="inlineStr"/>
       <c r="BA291" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="292">
+    <row r="292" ht="15" customHeight="1">
       <c r="A292" s="1" t="inlineStr"/>
       <c r="B292" s="1" t="inlineStr"/>
       <c r="C292" s="1" t="inlineStr"/>
@@ -21557,7 +21625,7 @@
       <c r="AZ292" s="1" t="inlineStr"/>
       <c r="BA292" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="293">
+    <row r="293" ht="15" customHeight="1">
       <c r="A293" s="1" t="inlineStr"/>
       <c r="B293" s="1" t="inlineStr"/>
       <c r="C293" s="1" t="inlineStr"/>
@@ -21612,7 +21680,7 @@
       <c r="AZ293" s="1" t="inlineStr"/>
       <c r="BA293" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="294">
+    <row r="294" ht="15" customHeight="1">
       <c r="A294" s="1" t="inlineStr"/>
       <c r="B294" s="1" t="inlineStr"/>
       <c r="C294" s="1" t="inlineStr"/>
@@ -21667,7 +21735,7 @@
       <c r="AZ294" s="1" t="inlineStr"/>
       <c r="BA294" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="295">
+    <row r="295" ht="15" customHeight="1">
       <c r="A295" s="1" t="inlineStr"/>
       <c r="B295" s="1" t="inlineStr"/>
       <c r="C295" s="1" t="inlineStr"/>
@@ -21722,7 +21790,7 @@
       <c r="AZ295" s="1" t="inlineStr"/>
       <c r="BA295" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="296">
+    <row r="296" ht="15" customHeight="1">
       <c r="A296" s="1" t="inlineStr"/>
       <c r="B296" s="1" t="inlineStr"/>
       <c r="C296" s="1" t="inlineStr"/>
@@ -21777,7 +21845,7 @@
       <c r="AZ296" s="1" t="inlineStr"/>
       <c r="BA296" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="297">
+    <row r="297" ht="15" customHeight="1">
       <c r="A297" s="1" t="inlineStr"/>
       <c r="B297" s="1" t="inlineStr"/>
       <c r="C297" s="1" t="inlineStr"/>
@@ -21832,7 +21900,7 @@
       <c r="AZ297" s="1" t="inlineStr"/>
       <c r="BA297" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="298">
+    <row r="298" ht="15" customHeight="1">
       <c r="A298" s="1" t="inlineStr"/>
       <c r="B298" s="1" t="inlineStr"/>
       <c r="C298" s="1" t="inlineStr"/>
@@ -21887,7 +21955,7 @@
       <c r="AZ298" s="1" t="inlineStr"/>
       <c r="BA298" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="299">
+    <row r="299" ht="15" customHeight="1">
       <c r="A299" s="1" t="inlineStr"/>
       <c r="B299" s="1" t="inlineStr"/>
       <c r="C299" s="1" t="inlineStr"/>
@@ -21942,7 +22010,7 @@
       <c r="AZ299" s="1" t="inlineStr"/>
       <c r="BA299" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="300">
+    <row r="300" ht="15" customHeight="1">
       <c r="A300" s="1" t="inlineStr"/>
       <c r="B300" s="1" t="inlineStr"/>
       <c r="C300" s="1" t="inlineStr"/>
@@ -21997,7 +22065,7 @@
       <c r="AZ300" s="1" t="inlineStr"/>
       <c r="BA300" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="301">
+    <row r="301" ht="15" customHeight="1">
       <c r="A301" s="1" t="inlineStr"/>
       <c r="B301" s="1" t="inlineStr"/>
       <c r="C301" s="1" t="inlineStr"/>
@@ -22052,7 +22120,7 @@
       <c r="AZ301" s="1" t="inlineStr"/>
       <c r="BA301" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="302">
+    <row r="302" ht="15" customHeight="1">
       <c r="A302" s="1" t="inlineStr"/>
       <c r="B302" s="1" t="inlineStr"/>
       <c r="C302" s="1" t="inlineStr"/>
@@ -22107,7 +22175,7 @@
       <c r="AZ302" s="1" t="inlineStr"/>
       <c r="BA302" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="303">
+    <row r="303" ht="15" customHeight="1">
       <c r="A303" s="1" t="inlineStr"/>
       <c r="B303" s="1" t="inlineStr"/>
       <c r="C303" s="1" t="inlineStr"/>
@@ -22162,7 +22230,7 @@
       <c r="AZ303" s="1" t="inlineStr"/>
       <c r="BA303" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="304">
+    <row r="304" ht="15" customHeight="1">
       <c r="A304" s="1" t="inlineStr"/>
       <c r="B304" s="1" t="inlineStr"/>
       <c r="C304" s="1" t="inlineStr"/>
@@ -22217,7 +22285,7 @@
       <c r="AZ304" s="1" t="inlineStr"/>
       <c r="BA304" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="305">
+    <row r="305" ht="15" customHeight="1">
       <c r="A305" s="1" t="inlineStr"/>
       <c r="B305" s="1" t="inlineStr"/>
       <c r="C305" s="1" t="inlineStr"/>
@@ -22272,7 +22340,7 @@
       <c r="AZ305" s="1" t="inlineStr"/>
       <c r="BA305" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="306">
+    <row r="306" ht="15" customHeight="1">
       <c r="A306" s="1" t="inlineStr"/>
       <c r="B306" s="1" t="inlineStr"/>
       <c r="C306" s="1" t="inlineStr"/>
@@ -22327,7 +22395,7 @@
       <c r="AZ306" s="1" t="inlineStr"/>
       <c r="BA306" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="307">
+    <row r="307" ht="15" customHeight="1">
       <c r="A307" s="1" t="inlineStr"/>
       <c r="B307" s="1" t="inlineStr"/>
       <c r="C307" s="1" t="inlineStr"/>
@@ -22382,7 +22450,7 @@
       <c r="AZ307" s="1" t="inlineStr"/>
       <c r="BA307" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="308">
+    <row r="308" ht="15" customHeight="1">
       <c r="A308" s="1" t="inlineStr"/>
       <c r="B308" s="1" t="inlineStr"/>
       <c r="C308" s="1" t="inlineStr"/>
@@ -22437,7 +22505,7 @@
       <c r="AZ308" s="1" t="inlineStr"/>
       <c r="BA308" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="309">
+    <row r="309" ht="15" customHeight="1">
       <c r="A309" s="1" t="inlineStr"/>
       <c r="B309" s="1" t="inlineStr"/>
       <c r="C309" s="1" t="inlineStr"/>
@@ -22492,7 +22560,7 @@
       <c r="AZ309" s="1" t="inlineStr"/>
       <c r="BA309" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="310">
+    <row r="310" ht="15" customHeight="1">
       <c r="A310" s="1" t="inlineStr"/>
       <c r="B310" s="1" t="inlineStr"/>
       <c r="C310" s="1" t="inlineStr"/>
@@ -22547,7 +22615,7 @@
       <c r="AZ310" s="1" t="inlineStr"/>
       <c r="BA310" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="311">
+    <row r="311" ht="15" customHeight="1">
       <c r="A311" s="1" t="inlineStr"/>
       <c r="B311" s="1" t="inlineStr"/>
       <c r="C311" s="1" t="inlineStr"/>
@@ -22602,7 +22670,7 @@
       <c r="AZ311" s="1" t="inlineStr"/>
       <c r="BA311" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="312">
+    <row r="312" ht="15" customHeight="1">
       <c r="A312" s="1" t="inlineStr"/>
       <c r="B312" s="1" t="inlineStr"/>
       <c r="C312" s="1" t="inlineStr"/>
@@ -22657,7 +22725,7 @@
       <c r="AZ312" s="1" t="inlineStr"/>
       <c r="BA312" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="313">
+    <row r="313" ht="15" customHeight="1">
       <c r="A313" s="1" t="inlineStr"/>
       <c r="B313" s="1" t="inlineStr"/>
       <c r="C313" s="1" t="inlineStr"/>
@@ -22712,7 +22780,7 @@
       <c r="AZ313" s="1" t="inlineStr"/>
       <c r="BA313" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="314">
+    <row r="314" ht="15" customHeight="1">
       <c r="A314" s="1" t="inlineStr"/>
       <c r="B314" s="1" t="inlineStr"/>
       <c r="C314" s="1" t="inlineStr"/>
@@ -22767,7 +22835,7 @@
       <c r="AZ314" s="1" t="inlineStr"/>
       <c r="BA314" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="315">
+    <row r="315" ht="15" customHeight="1">
       <c r="A315" s="1" t="inlineStr"/>
       <c r="B315" s="1" t="inlineStr"/>
       <c r="C315" s="1" t="inlineStr"/>
@@ -22822,7 +22890,7 @@
       <c r="AZ315" s="1" t="inlineStr"/>
       <c r="BA315" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="316">
+    <row r="316" ht="15" customHeight="1">
       <c r="A316" s="1" t="inlineStr"/>
       <c r="B316" s="1" t="inlineStr"/>
       <c r="C316" s="1" t="inlineStr"/>
@@ -22877,7 +22945,7 @@
       <c r="AZ316" s="1" t="inlineStr"/>
       <c r="BA316" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="317">
+    <row r="317" ht="15" customHeight="1">
       <c r="A317" s="1" t="inlineStr"/>
       <c r="B317" s="1" t="inlineStr"/>
       <c r="C317" s="1" t="inlineStr"/>
@@ -22932,7 +23000,7 @@
       <c r="AZ317" s="1" t="inlineStr"/>
       <c r="BA317" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="318">
+    <row r="318" ht="15" customHeight="1">
       <c r="A318" s="1" t="inlineStr"/>
       <c r="B318" s="1" t="inlineStr"/>
       <c r="C318" s="1" t="inlineStr"/>
@@ -22987,7 +23055,7 @@
       <c r="AZ318" s="1" t="inlineStr"/>
       <c r="BA318" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="319">
+    <row r="319" ht="15" customHeight="1">
       <c r="A319" s="1" t="inlineStr"/>
       <c r="B319" s="1" t="inlineStr"/>
       <c r="C319" s="1" t="inlineStr"/>
@@ -23042,7 +23110,7 @@
       <c r="AZ319" s="1" t="inlineStr"/>
       <c r="BA319" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="320">
+    <row r="320" ht="15" customHeight="1">
       <c r="A320" s="1" t="inlineStr"/>
       <c r="B320" s="1" t="inlineStr"/>
       <c r="C320" s="1" t="inlineStr"/>
@@ -23097,7 +23165,7 @@
       <c r="AZ320" s="1" t="inlineStr"/>
       <c r="BA320" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="321">
+    <row r="321" ht="15" customHeight="1">
       <c r="A321" s="1" t="inlineStr"/>
       <c r="B321" s="1" t="inlineStr"/>
       <c r="C321" s="1" t="inlineStr"/>
@@ -23152,7 +23220,7 @@
       <c r="AZ321" s="1" t="inlineStr"/>
       <c r="BA321" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="322">
+    <row r="322" ht="15" customHeight="1">
       <c r="A322" s="1" t="inlineStr"/>
       <c r="B322" s="1" t="inlineStr"/>
       <c r="C322" s="1" t="inlineStr"/>
@@ -23207,7 +23275,7 @@
       <c r="AZ322" s="1" t="inlineStr"/>
       <c r="BA322" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="323">
+    <row r="323" ht="15" customHeight="1">
       <c r="A323" s="1" t="inlineStr"/>
       <c r="B323" s="1" t="inlineStr"/>
       <c r="C323" s="1" t="inlineStr"/>
@@ -23262,7 +23330,7 @@
       <c r="AZ323" s="1" t="inlineStr"/>
       <c r="BA323" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="324">
+    <row r="324" ht="15" customHeight="1">
       <c r="A324" s="1" t="inlineStr"/>
       <c r="B324" s="1" t="inlineStr"/>
       <c r="C324" s="1" t="inlineStr"/>
@@ -23317,7 +23385,7 @@
       <c r="AZ324" s="1" t="inlineStr"/>
       <c r="BA324" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="325">
+    <row r="325" ht="15" customHeight="1">
       <c r="A325" s="1" t="inlineStr"/>
       <c r="B325" s="1" t="inlineStr"/>
       <c r="C325" s="1" t="inlineStr"/>
@@ -23372,7 +23440,7 @@
       <c r="AZ325" s="1" t="inlineStr"/>
       <c r="BA325" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="326">
+    <row r="326" ht="15" customHeight="1">
       <c r="A326" s="1" t="inlineStr"/>
       <c r="B326" s="1" t="inlineStr"/>
       <c r="C326" s="1" t="inlineStr"/>
@@ -23427,7 +23495,7 @@
       <c r="AZ326" s="1" t="inlineStr"/>
       <c r="BA326" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="327">
+    <row r="327" ht="15" customHeight="1">
       <c r="A327" s="1" t="inlineStr"/>
       <c r="B327" s="1" t="inlineStr"/>
       <c r="C327" s="1" t="inlineStr"/>
@@ -23482,7 +23550,7 @@
       <c r="AZ327" s="1" t="inlineStr"/>
       <c r="BA327" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="328">
+    <row r="328" ht="15" customHeight="1">
       <c r="A328" s="1" t="inlineStr"/>
       <c r="B328" s="1" t="inlineStr"/>
       <c r="C328" s="1" t="inlineStr"/>
@@ -23537,7 +23605,7 @@
       <c r="AZ328" s="1" t="inlineStr"/>
       <c r="BA328" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="329">
+    <row r="329" ht="15" customHeight="1">
       <c r="A329" s="1" t="inlineStr"/>
       <c r="B329" s="1" t="inlineStr"/>
       <c r="C329" s="1" t="inlineStr"/>
@@ -23592,7 +23660,7 @@
       <c r="AZ329" s="1" t="inlineStr"/>
       <c r="BA329" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="330">
+    <row r="330" ht="15" customHeight="1">
       <c r="A330" s="1" t="inlineStr"/>
       <c r="B330" s="1" t="inlineStr"/>
       <c r="C330" s="1" t="inlineStr"/>
@@ -23647,7 +23715,7 @@
       <c r="AZ330" s="1" t="inlineStr"/>
       <c r="BA330" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="331">
+    <row r="331" ht="15" customHeight="1">
       <c r="A331" s="1" t="inlineStr"/>
       <c r="B331" s="1" t="inlineStr"/>
       <c r="C331" s="1" t="inlineStr"/>
@@ -23702,7 +23770,7 @@
       <c r="AZ331" s="1" t="inlineStr"/>
       <c r="BA331" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="332">
+    <row r="332" ht="15" customHeight="1">
       <c r="A332" s="1" t="inlineStr"/>
       <c r="B332" s="1" t="inlineStr"/>
       <c r="C332" s="1" t="inlineStr"/>
@@ -23757,7 +23825,7 @@
       <c r="AZ332" s="1" t="inlineStr"/>
       <c r="BA332" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="333">
+    <row r="333" ht="15" customHeight="1">
       <c r="A333" s="1" t="inlineStr"/>
       <c r="B333" s="1" t="inlineStr"/>
       <c r="C333" s="1" t="inlineStr"/>
@@ -23812,7 +23880,7 @@
       <c r="AZ333" s="1" t="inlineStr"/>
       <c r="BA333" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="334">
+    <row r="334" ht="15" customHeight="1">
       <c r="A334" s="1" t="inlineStr"/>
       <c r="B334" s="1" t="inlineStr"/>
       <c r="C334" s="1" t="inlineStr"/>
@@ -23867,7 +23935,7 @@
       <c r="AZ334" s="1" t="inlineStr"/>
       <c r="BA334" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="335">
+    <row r="335" ht="15" customHeight="1">
       <c r="A335" s="1" t="inlineStr"/>
       <c r="B335" s="1" t="inlineStr"/>
       <c r="C335" s="1" t="inlineStr"/>
@@ -23922,7 +23990,7 @@
       <c r="AZ335" s="1" t="inlineStr"/>
       <c r="BA335" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="336">
+    <row r="336" ht="15" customHeight="1">
       <c r="A336" s="1" t="inlineStr"/>
       <c r="B336" s="1" t="inlineStr"/>
       <c r="C336" s="1" t="inlineStr"/>
@@ -23977,7 +24045,7 @@
       <c r="AZ336" s="1" t="inlineStr"/>
       <c r="BA336" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="337">
+    <row r="337" ht="15" customHeight="1">
       <c r="A337" s="1" t="inlineStr"/>
       <c r="B337" s="1" t="inlineStr"/>
       <c r="C337" s="1" t="inlineStr"/>
@@ -24032,7 +24100,7 @@
       <c r="AZ337" s="1" t="inlineStr"/>
       <c r="BA337" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="338">
+    <row r="338" ht="15" customHeight="1">
       <c r="A338" s="1" t="inlineStr"/>
       <c r="B338" s="1" t="inlineStr"/>
       <c r="C338" s="1" t="inlineStr"/>
@@ -24087,7 +24155,7 @@
       <c r="AZ338" s="1" t="inlineStr"/>
       <c r="BA338" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="339">
+    <row r="339" ht="15" customHeight="1">
       <c r="A339" s="1" t="inlineStr"/>
       <c r="B339" s="1" t="inlineStr"/>
       <c r="C339" s="1" t="inlineStr"/>
@@ -24142,7 +24210,7 @@
       <c r="AZ339" s="1" t="inlineStr"/>
       <c r="BA339" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="340">
+    <row r="340" ht="15" customHeight="1">
       <c r="A340" s="1" t="inlineStr"/>
       <c r="B340" s="1" t="inlineStr"/>
       <c r="C340" s="1" t="inlineStr"/>
@@ -24197,7 +24265,7 @@
       <c r="AZ340" s="1" t="inlineStr"/>
       <c r="BA340" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="341">
+    <row r="341" ht="15" customHeight="1">
       <c r="A341" s="1" t="inlineStr"/>
       <c r="B341" s="1" t="inlineStr"/>
       <c r="C341" s="1" t="inlineStr"/>
@@ -24252,7 +24320,7 @@
       <c r="AZ341" s="1" t="inlineStr"/>
       <c r="BA341" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="342">
+    <row r="342" ht="15" customHeight="1">
       <c r="A342" s="1" t="inlineStr"/>
       <c r="B342" s="1" t="inlineStr"/>
       <c r="C342" s="1" t="inlineStr"/>
@@ -24307,7 +24375,7 @@
       <c r="AZ342" s="1" t="inlineStr"/>
       <c r="BA342" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="343">
+    <row r="343" ht="15" customHeight="1">
       <c r="A343" s="1" t="inlineStr"/>
       <c r="B343" s="1" t="inlineStr"/>
       <c r="C343" s="1" t="inlineStr"/>
@@ -24362,7 +24430,7 @@
       <c r="AZ343" s="1" t="inlineStr"/>
       <c r="BA343" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="344">
+    <row r="344" ht="15" customHeight="1">
       <c r="A344" s="1" t="inlineStr"/>
       <c r="B344" s="1" t="inlineStr"/>
       <c r="C344" s="1" t="inlineStr"/>
@@ -24417,7 +24485,7 @@
       <c r="AZ344" s="1" t="inlineStr"/>
       <c r="BA344" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="345">
+    <row r="345" ht="15" customHeight="1">
       <c r="A345" s="1" t="inlineStr"/>
       <c r="B345" s="1" t="inlineStr"/>
       <c r="C345" s="1" t="inlineStr"/>
@@ -24472,7 +24540,7 @@
       <c r="AZ345" s="1" t="inlineStr"/>
       <c r="BA345" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="346">
+    <row r="346" ht="15" customHeight="1">
       <c r="A346" s="1" t="inlineStr"/>
       <c r="B346" s="1" t="inlineStr"/>
       <c r="C346" s="1" t="inlineStr"/>
@@ -24527,7 +24595,7 @@
       <c r="AZ346" s="1" t="inlineStr"/>
       <c r="BA346" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="347">
+    <row r="347" ht="15" customHeight="1">
       <c r="A347" s="1" t="inlineStr"/>
       <c r="B347" s="1" t="inlineStr"/>
       <c r="C347" s="1" t="inlineStr"/>
@@ -24582,7 +24650,7 @@
       <c r="AZ347" s="1" t="inlineStr"/>
       <c r="BA347" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="348">
+    <row r="348" ht="15" customHeight="1">
       <c r="A348" s="1" t="inlineStr"/>
       <c r="B348" s="1" t="inlineStr"/>
       <c r="C348" s="1" t="inlineStr"/>
@@ -24637,7 +24705,7 @@
       <c r="AZ348" s="1" t="inlineStr"/>
       <c r="BA348" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="349">
+    <row r="349" ht="15" customHeight="1">
       <c r="A349" s="1" t="inlineStr"/>
       <c r="B349" s="1" t="inlineStr"/>
       <c r="C349" s="1" t="inlineStr"/>
@@ -24692,7 +24760,7 @@
       <c r="AZ349" s="1" t="inlineStr"/>
       <c r="BA349" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="350">
+    <row r="350" ht="15" customHeight="1">
       <c r="A350" s="1" t="inlineStr"/>
       <c r="B350" s="1" t="inlineStr"/>
       <c r="C350" s="1" t="inlineStr"/>
@@ -24747,7 +24815,7 @@
       <c r="AZ350" s="1" t="inlineStr"/>
       <c r="BA350" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="351">
+    <row r="351" ht="15" customHeight="1">
       <c r="A351" s="1" t="inlineStr"/>
       <c r="B351" s="1" t="inlineStr"/>
       <c r="C351" s="1" t="inlineStr"/>
@@ -24802,7 +24870,7 @@
       <c r="AZ351" s="1" t="inlineStr"/>
       <c r="BA351" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="352">
+    <row r="352" ht="15" customHeight="1">
       <c r="A352" s="1" t="inlineStr"/>
       <c r="B352" s="1" t="inlineStr"/>
       <c r="C352" s="1" t="inlineStr"/>
@@ -24857,7 +24925,7 @@
       <c r="AZ352" s="1" t="inlineStr"/>
       <c r="BA352" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="353">
+    <row r="353" ht="15" customHeight="1">
       <c r="A353" s="1" t="inlineStr"/>
       <c r="B353" s="1" t="inlineStr"/>
       <c r="C353" s="1" t="inlineStr"/>
@@ -24912,7 +24980,7 @@
       <c r="AZ353" s="1" t="inlineStr"/>
       <c r="BA353" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="354">
+    <row r="354" ht="15" customHeight="1">
       <c r="A354" s="1" t="inlineStr"/>
       <c r="B354" s="1" t="inlineStr"/>
       <c r="C354" s="1" t="inlineStr"/>
@@ -24967,7 +25035,7 @@
       <c r="AZ354" s="1" t="inlineStr"/>
       <c r="BA354" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="355">
+    <row r="355" ht="15" customHeight="1">
       <c r="A355" s="1" t="inlineStr"/>
       <c r="B355" s="1" t="inlineStr"/>
       <c r="C355" s="1" t="inlineStr"/>
@@ -25022,7 +25090,7 @@
       <c r="AZ355" s="1" t="inlineStr"/>
       <c r="BA355" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="356">
+    <row r="356" ht="15" customHeight="1">
       <c r="A356" s="1" t="inlineStr"/>
       <c r="B356" s="1" t="inlineStr"/>
       <c r="C356" s="1" t="inlineStr"/>
@@ -25077,7 +25145,7 @@
       <c r="AZ356" s="1" t="inlineStr"/>
       <c r="BA356" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="357">
+    <row r="357" ht="15" customHeight="1">
       <c r="A357" s="1" t="inlineStr"/>
       <c r="B357" s="1" t="inlineStr"/>
       <c r="C357" s="1" t="inlineStr"/>
@@ -25132,7 +25200,7 @@
       <c r="AZ357" s="1" t="inlineStr"/>
       <c r="BA357" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="358">
+    <row r="358" ht="15" customHeight="1">
       <c r="A358" s="1" t="inlineStr"/>
       <c r="B358" s="1" t="inlineStr"/>
       <c r="C358" s="1" t="inlineStr"/>
@@ -25187,7 +25255,7 @@
       <c r="AZ358" s="1" t="inlineStr"/>
       <c r="BA358" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="359">
+    <row r="359" ht="15" customHeight="1">
       <c r="A359" s="1" t="inlineStr"/>
       <c r="B359" s="1" t="inlineStr"/>
       <c r="C359" s="1" t="inlineStr"/>
@@ -25242,7 +25310,7 @@
       <c r="AZ359" s="1" t="inlineStr"/>
       <c r="BA359" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="360">
+    <row r="360" ht="15" customHeight="1">
       <c r="A360" s="1" t="inlineStr"/>
       <c r="B360" s="1" t="inlineStr"/>
       <c r="C360" s="1" t="inlineStr"/>
@@ -25297,7 +25365,7 @@
       <c r="AZ360" s="1" t="inlineStr"/>
       <c r="BA360" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="361">
+    <row r="361" ht="15" customHeight="1">
       <c r="A361" s="1" t="inlineStr"/>
       <c r="B361" s="1" t="inlineStr"/>
       <c r="C361" s="1" t="inlineStr"/>
@@ -25352,7 +25420,7 @@
       <c r="AZ361" s="1" t="inlineStr"/>
       <c r="BA361" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="362">
+    <row r="362" ht="15" customHeight="1">
       <c r="A362" s="1" t="inlineStr"/>
       <c r="B362" s="1" t="inlineStr"/>
       <c r="C362" s="1" t="inlineStr"/>
@@ -25407,7 +25475,7 @@
       <c r="AZ362" s="1" t="inlineStr"/>
       <c r="BA362" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="363">
+    <row r="363" ht="15" customHeight="1">
       <c r="A363" s="1" t="inlineStr"/>
       <c r="B363" s="1" t="inlineStr"/>
       <c r="C363" s="1" t="inlineStr"/>
@@ -25462,7 +25530,7 @@
       <c r="AZ363" s="1" t="inlineStr"/>
       <c r="BA363" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="364">
+    <row r="364" ht="15" customHeight="1">
       <c r="A364" s="1" t="inlineStr"/>
       <c r="B364" s="1" t="inlineStr"/>
       <c r="C364" s="1" t="inlineStr"/>
@@ -25517,7 +25585,7 @@
       <c r="AZ364" s="1" t="inlineStr"/>
       <c r="BA364" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="365">
+    <row r="365" ht="15" customHeight="1">
       <c r="A365" s="1" t="inlineStr"/>
       <c r="B365" s="1" t="inlineStr"/>
       <c r="C365" s="1" t="inlineStr"/>
@@ -25572,7 +25640,7 @@
       <c r="AZ365" s="1" t="inlineStr"/>
       <c r="BA365" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="366">
+    <row r="366" ht="15" customHeight="1">
       <c r="A366" s="1" t="inlineStr"/>
       <c r="B366" s="1" t="inlineStr"/>
       <c r="C366" s="1" t="inlineStr"/>
@@ -25627,7 +25695,7 @@
       <c r="AZ366" s="1" t="inlineStr"/>
       <c r="BA366" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="367">
+    <row r="367" ht="15" customHeight="1">
       <c r="A367" s="1" t="inlineStr"/>
       <c r="B367" s="1" t="inlineStr"/>
       <c r="C367" s="1" t="inlineStr"/>
@@ -25682,7 +25750,7 @@
       <c r="AZ367" s="1" t="inlineStr"/>
       <c r="BA367" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="368">
+    <row r="368" ht="15" customHeight="1">
       <c r="A368" s="1" t="inlineStr"/>
       <c r="B368" s="1" t="inlineStr"/>
       <c r="C368" s="1" t="inlineStr"/>
@@ -25737,7 +25805,7 @@
       <c r="AZ368" s="1" t="inlineStr"/>
       <c r="BA368" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="369">
+    <row r="369" ht="15" customHeight="1">
       <c r="A369" s="1" t="inlineStr"/>
       <c r="B369" s="1" t="inlineStr"/>
       <c r="C369" s="1" t="inlineStr"/>
@@ -25792,7 +25860,7 @@
       <c r="AZ369" s="1" t="inlineStr"/>
       <c r="BA369" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="370">
+    <row r="370" ht="15" customHeight="1">
       <c r="A370" s="1" t="inlineStr"/>
       <c r="B370" s="1" t="inlineStr"/>
       <c r="C370" s="1" t="inlineStr"/>
@@ -25847,7 +25915,7 @@
       <c r="AZ370" s="1" t="inlineStr"/>
       <c r="BA370" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="371">
+    <row r="371" ht="15" customHeight="1">
       <c r="A371" s="1" t="inlineStr"/>
       <c r="B371" s="1" t="inlineStr"/>
       <c r="C371" s="1" t="inlineStr"/>
@@ -25902,7 +25970,7 @@
       <c r="AZ371" s="1" t="inlineStr"/>
       <c r="BA371" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="372">
+    <row r="372" ht="15" customHeight="1">
       <c r="A372" s="1" t="inlineStr"/>
       <c r="B372" s="1" t="inlineStr"/>
       <c r="C372" s="1" t="inlineStr"/>
@@ -25957,7 +26025,7 @@
       <c r="AZ372" s="1" t="inlineStr"/>
       <c r="BA372" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="373">
+    <row r="373" ht="15" customHeight="1">
       <c r="A373" s="1" t="inlineStr"/>
       <c r="B373" s="1" t="inlineStr"/>
       <c r="C373" s="1" t="inlineStr"/>
@@ -26012,7 +26080,7 @@
       <c r="AZ373" s="1" t="inlineStr"/>
       <c r="BA373" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="374">
+    <row r="374" ht="15" customHeight="1">
       <c r="A374" s="1" t="inlineStr"/>
       <c r="B374" s="1" t="inlineStr"/>
       <c r="C374" s="1" t="inlineStr"/>
@@ -26067,7 +26135,7 @@
       <c r="AZ374" s="1" t="inlineStr"/>
       <c r="BA374" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="375">
+    <row r="375" ht="15" customHeight="1">
       <c r="A375" s="1" t="inlineStr"/>
       <c r="B375" s="1" t="inlineStr"/>
       <c r="C375" s="1" t="inlineStr"/>
@@ -26122,7 +26190,7 @@
       <c r="AZ375" s="1" t="inlineStr"/>
       <c r="BA375" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="376">
+    <row r="376" ht="15" customHeight="1">
       <c r="A376" s="1" t="inlineStr"/>
       <c r="B376" s="1" t="inlineStr"/>
       <c r="C376" s="1" t="inlineStr"/>
@@ -26177,7 +26245,7 @@
       <c r="AZ376" s="1" t="inlineStr"/>
       <c r="BA376" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="377">
+    <row r="377" ht="15" customHeight="1">
       <c r="A377" s="1" t="inlineStr"/>
       <c r="B377" s="1" t="inlineStr"/>
       <c r="C377" s="1" t="inlineStr"/>
@@ -26232,7 +26300,7 @@
       <c r="AZ377" s="1" t="inlineStr"/>
       <c r="BA377" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="378">
+    <row r="378" ht="15" customHeight="1">
       <c r="A378" s="1" t="inlineStr"/>
       <c r="B378" s="1" t="inlineStr"/>
       <c r="C378" s="1" t="inlineStr"/>
@@ -26287,7 +26355,7 @@
       <c r="AZ378" s="1" t="inlineStr"/>
       <c r="BA378" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="379">
+    <row r="379" ht="15" customHeight="1">
       <c r="A379" s="1" t="inlineStr"/>
       <c r="B379" s="1" t="inlineStr"/>
       <c r="C379" s="1" t="inlineStr"/>
@@ -26342,7 +26410,7 @@
       <c r="AZ379" s="1" t="inlineStr"/>
       <c r="BA379" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="380">
+    <row r="380" ht="15" customHeight="1">
       <c r="A380" s="1" t="inlineStr"/>
       <c r="B380" s="1" t="inlineStr"/>
       <c r="C380" s="1" t="inlineStr"/>
@@ -26397,7 +26465,7 @@
       <c r="AZ380" s="1" t="inlineStr"/>
       <c r="BA380" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="381">
+    <row r="381" ht="15" customHeight="1">
       <c r="A381" s="1" t="inlineStr"/>
       <c r="B381" s="1" t="inlineStr"/>
       <c r="C381" s="1" t="inlineStr"/>
@@ -26452,7 +26520,7 @@
       <c r="AZ381" s="1" t="inlineStr"/>
       <c r="BA381" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="382">
+    <row r="382" ht="15" customHeight="1">
       <c r="A382" s="1" t="inlineStr"/>
       <c r="B382" s="1" t="inlineStr"/>
       <c r="C382" s="1" t="inlineStr"/>
@@ -26507,7 +26575,7 @@
       <c r="AZ382" s="1" t="inlineStr"/>
       <c r="BA382" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="383">
+    <row r="383" ht="15" customHeight="1">
       <c r="A383" s="1" t="inlineStr"/>
       <c r="B383" s="1" t="inlineStr"/>
       <c r="C383" s="1" t="inlineStr"/>
@@ -26562,7 +26630,7 @@
       <c r="AZ383" s="1" t="inlineStr"/>
       <c r="BA383" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="384">
+    <row r="384" ht="15" customHeight="1">
       <c r="A384" s="1" t="inlineStr"/>
       <c r="B384" s="1" t="inlineStr"/>
       <c r="C384" s="1" t="inlineStr"/>
@@ -26617,7 +26685,7 @@
       <c r="AZ384" s="1" t="inlineStr"/>
       <c r="BA384" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="385">
+    <row r="385" ht="15" customHeight="1">
       <c r="A385" s="1" t="inlineStr"/>
       <c r="B385" s="1" t="inlineStr"/>
       <c r="C385" s="1" t="inlineStr"/>
@@ -26672,7 +26740,7 @@
       <c r="AZ385" s="1" t="inlineStr"/>
       <c r="BA385" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="386">
+    <row r="386" ht="15" customHeight="1">
       <c r="A386" s="1" t="inlineStr"/>
       <c r="B386" s="1" t="inlineStr"/>
       <c r="C386" s="1" t="inlineStr"/>
@@ -26727,7 +26795,7 @@
       <c r="AZ386" s="1" t="inlineStr"/>
       <c r="BA386" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="387">
+    <row r="387" ht="15" customHeight="1">
       <c r="A387" s="1" t="inlineStr"/>
       <c r="B387" s="1" t="inlineStr"/>
       <c r="C387" s="1" t="inlineStr"/>
@@ -26782,7 +26850,7 @@
       <c r="AZ387" s="1" t="inlineStr"/>
       <c r="BA387" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="388">
+    <row r="388" ht="15" customHeight="1">
       <c r="A388" s="1" t="inlineStr"/>
       <c r="B388" s="1" t="inlineStr"/>
       <c r="C388" s="1" t="inlineStr"/>
@@ -26837,7 +26905,7 @@
       <c r="AZ388" s="1" t="inlineStr"/>
       <c r="BA388" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="389">
+    <row r="389" ht="15" customHeight="1">
       <c r="A389" s="1" t="inlineStr"/>
       <c r="B389" s="1" t="inlineStr"/>
       <c r="C389" s="1" t="inlineStr"/>
@@ -26892,7 +26960,7 @@
       <c r="AZ389" s="1" t="inlineStr"/>
       <c r="BA389" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="390">
+    <row r="390" ht="15" customHeight="1">
       <c r="A390" s="1" t="inlineStr"/>
       <c r="B390" s="1" t="inlineStr"/>
       <c r="C390" s="1" t="inlineStr"/>
@@ -26947,7 +27015,7 @@
       <c r="AZ390" s="1" t="inlineStr"/>
       <c r="BA390" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="391">
+    <row r="391" ht="15" customHeight="1">
       <c r="A391" s="1" t="inlineStr"/>
       <c r="B391" s="1" t="inlineStr"/>
       <c r="C391" s="1" t="inlineStr"/>
@@ -27002,7 +27070,7 @@
       <c r="AZ391" s="1" t="inlineStr"/>
       <c r="BA391" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="392">
+    <row r="392" ht="15" customHeight="1">
       <c r="A392" s="1" t="inlineStr"/>
       <c r="B392" s="1" t="inlineStr"/>
       <c r="C392" s="1" t="inlineStr"/>
@@ -27057,7 +27125,7 @@
       <c r="AZ392" s="1" t="inlineStr"/>
       <c r="BA392" s="1" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="393">
+    <row r="393" ht="15" customHeight="1">
       <c r="A393" s="1" t="inlineStr"/>
       <c r="B393" s="1" t="inlineStr"/>
       <c r="C393" s="1" t="inlineStr"/>
@@ -27130,6 +27198,6 @@
     <hyperlink ref="D149" r:id="rId14"/>
     <hyperlink ref="D150" r:id="rId15"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>